--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2124 +418,2296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.2362658063582698</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.062616442377684</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.001226833709984948</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.001311063298158941</v>
+      </c>
+      <c r="E2">
         <v>0.1247054714000644</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.4771638519528711</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.5512982753304221</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.06425389592581082</v>
+      </c>
+      <c r="I2">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="J2">
         <v>0.4368949369345855</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>0.578637031876673</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>2.097461698373178</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>1.319833416543931</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N2" t="n">
-        <v>6.927532037200024</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>7.468095324030134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2367674322741049</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.064872528242605</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.001410858766482689</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.001507722792882782</v>
+      </c>
+      <c r="E3">
         <v>0.1434112921100741</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.4771638519528711</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.5512982753304221</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I3">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J3">
         <v>0.449744788020897</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>0.5956557681083399</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>1.771993503798029</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>1.11503167949401</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N3" t="n">
-        <v>6.448778250440197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>7.012853261153834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.2417836914324544</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.087433386891813</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0008587835969894634</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.0009177443087112589</v>
+      </c>
+      <c r="E4">
         <v>0.08729382998004512</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.3181092346352473</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.3675321835536147</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.05307930533001765</v>
+      </c>
+      <c r="I4">
+        <v>0.3934033941307115</v>
+      </c>
+      <c r="J4">
         <v>0.3255295608532208</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>0.4311413178688935</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>1.193383380108877</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>0.7509397025163743</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.83162391966577</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>5.27816557983822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.2804088869517469</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.261151998490712</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.001901592250476669</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002032148112146359</v>
+      </c>
+      <c r="E5">
         <v>0.1932934806700999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.6362184692704946</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.7350643671072294</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.05028565768106934</v>
+      </c>
+      <c r="I5">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="J5">
         <v>0.4711612064980825</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>0.6240203284944512</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>1.338035911031165</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>0.8419626967607834</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.01339145285219112</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.05565566771840942</v>
       </c>
-      <c r="N5" t="n">
-        <v>6.452266058095842</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>6.87538022397294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.2944544125951259</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.324322402708493</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0011654920244857</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.001245510133250994</v>
+      </c>
+      <c r="E6">
         <v>0.1184701978300612</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6008729987554672</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.6942274578234947</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.05307930533001765</v>
+      </c>
+      <c r="I6">
+        <v>0.3934033941307115</v>
+      </c>
+      <c r="J6">
         <v>0.4925776249752681</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>0.6523848888805627</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>1.229546512839449</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>0.7736954510774768</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N6" t="n">
-        <v>6.223145711852245</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>6.669708429421739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.2904414052684464</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.306273715789128</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.002392325734470648</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.002556573431409935</v>
+      </c>
+      <c r="E7">
         <v>0.2431756692301257</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.4594911166953574</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.5308798206885547</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I7">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J7">
         <v>0.4711612064980825</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>0.6240203284944512</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>1.193383380108877</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>0.7509397025163743</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.913586943366228</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>6.477729337750405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.3396007450202732</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.527370130551363</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.002699034161966885</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.00288433925594967</v>
+      </c>
+      <c r="E8">
         <v>0.2743520370801418</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6362184692704946</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.7350643671072294</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.06984119122370744</v>
+      </c>
+      <c r="I8">
+        <v>0.5176360449088312</v>
+      </c>
+      <c r="J8">
         <v>0.3512292630258433</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>0.4651787903322273</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>0.9040783182643005</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>0.5688937140275563</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.01874803399306757</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.07791793480577316</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.901350837640237</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>6.489013378866757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.3932747180146149</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.768771318097885</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0007361002259909685</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.0007866379788953647</v>
+      </c>
+      <c r="E9">
         <v>0.07482328284003867</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.3888001756653024</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.4492060021210847</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.06146024827686252</v>
+      </c>
+      <c r="I9">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="J9">
         <v>0.261280305421664</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>0.3460476367105594</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>0.7594257873420127</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>0.4778707197831473</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>4.9202360462223</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>5.437266551771838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.3757178109603912</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.689808312825658</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0004293917984947317</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.0004588721543556294</v>
+      </c>
+      <c r="E10">
         <v>0.04364691499002256</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.3711274404077886</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.4287875474792174</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.1005713153621387</v>
+      </c>
+      <c r="I10">
+        <v>0.7453959046687169</v>
+      </c>
+      <c r="J10">
         <v>0.2098809010764185</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>0.2779726917838919</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.3977944600362923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>0.2503132341721247</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N10" t="n">
-        <v>4.05928812964442</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>4.905284830031136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.2713796204667175</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.220542452922139</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0003680501129954843</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.0003933189894476823</v>
+      </c>
+      <c r="E11">
         <v>0.03741164142001933</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.3004364993777336</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.3471137289117474</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.08380942946844891</v>
+      </c>
+      <c r="I11">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="J11">
         <v>0.09423224129961649</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.1248040656988903</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.6147732564197246</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.3868477255387384</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N11" t="n">
-        <v>3.411718706282442</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>4.116716658517941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2437901950957944</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.096457730351496</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.001104150338986453</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.001179956968343047</v>
+      </c>
+      <c r="E12">
         <v>0.112234924260058</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.2650910288627061</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.3062768196280122</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I12">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J12">
         <v>0.08994895760417938</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.119131153621668</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N12" t="n">
-        <v>2.778114315502089</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>3.389166447709286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1775755742055786</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.7986543961819537</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0002453667419969895</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.0002622126596317883</v>
+      </c>
+      <c r="E13">
         <v>0.02494109428001289</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.2297455583476787</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.2654399103442773</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I13">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J13">
         <v>0.06853253912699382</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.09076659323555654</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.2893050618445762</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.1820459884888181</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.141061506911563</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>2.752054678407037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.09129591668196417</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.4106076274155807</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.0001226833709984948</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.0001311063298158941</v>
+      </c>
+      <c r="E14">
         <v>0.01247054714000645</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.08836367628756872</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.1020922732093374</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.04749201003212105</v>
+      </c>
+      <c r="I14">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="J14">
         <v>0.05139940434524536</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.06807494492666741</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.1084893981917161</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.06826724568330676</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>1.001183717252392</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>1.400676660781335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.07424063554357523</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.3339007080082744</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0004293917984947317</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.0004588721543556294</v>
+      </c>
+      <c r="E15">
         <v>0.04364691499002256</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.14138188206011</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.1633476371349399</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.01676188589368978</v>
+      </c>
+      <c r="I15">
+        <v>0.1242326507781195</v>
+      </c>
+      <c r="J15">
         <v>0.1284985108631134</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.1701873623166685</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1.35022744917357</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>1.49125146620124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.06069673581603111</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.2729863896554134</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0003680501129954843</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.0003933189894476823</v>
+      </c>
+      <c r="E16">
         <v>0.03741164142001933</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="J16">
         <v>0.05568268804068247</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.07374785700388971</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>0.7954877685074029</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>0.795513037383855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.03310731044510788</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.148901667084771</v>
       </c>
-      <c r="D17" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E17">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05301820577254122</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.06125536392560248</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.03854955325893403</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.05105620869500056</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.07232626546114405</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.04551149712220452</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>0.5100226870208082</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>0.5100268985002169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.02608454762341834</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1173164649758802</v>
       </c>
-      <c r="D18" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E18">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.01767273525751375</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.02041845464186749</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.02141641847718557</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.02836456038611141</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>0.4732453217841764</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>0.473249533263585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.02508129579174839</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1128042932460386</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0003067084274962369</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.0003277658245397354</v>
+      </c>
+      <c r="E19">
         <v>0.03117636785001611</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.0353454705150275</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.04083690928373497</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.01117459059579319</v>
+      </c>
+      <c r="I19">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="J19">
         <v>0.05139940434524536</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.06807494492666741</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>0.6007009195526718</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>0.6947183347309214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.04614958425681704</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2075598995727111</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0001226833709984948</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.0001311063298158941</v>
+      </c>
+      <c r="E20">
         <v>0.01247054714000645</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="J20">
         <v>0.04711612064980825</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.06240203284944514</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>0.9060907994648549</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>0.9060992224236724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1555040339088401</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.6993866181254399</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E21">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.3888001756653024</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.4492060021210847</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.01676188589368978</v>
+      </c>
+      <c r="I21">
+        <v>0.1242326507781195</v>
+      </c>
+      <c r="J21">
         <v>0.1584814967311732</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.2098977468572246</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.638054699028881</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>2.779061870138916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.266363361308368</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.19798159427293</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E22">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5125093224678984</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.5921351846141573</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I22">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J22">
         <v>0.2826967238988495</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>0.3744121970966706</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>1.121057114647733</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>0.7054282053941697</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N22" t="n">
-        <v>5.085282973581403</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>5.907763738605183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.3441153782627879</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.547674903335651</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E23">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.2474182936051924</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.2858583649861449</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.08939672476634548</v>
+      </c>
+      <c r="I23">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="J23">
         <v>0.1670480641220475</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>0.2212435710116691</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>0.5786101236891524</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>0.3640919769776361</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N23" t="n">
-        <v>3.802569369985028</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>4.554552866672903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.3335812340302535</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.500297100172314</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0009814669679879581</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.001048850638527153</v>
+      </c>
+      <c r="E24">
         <v>0.09976437712005157</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.4241456461803297</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.4900429114048199</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.07822213417055232</v>
+      </c>
+      <c r="I24">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="J24">
         <v>0.2312973195536041</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>0.3063372521700033</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>1.048730849186589</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>0.6599167082719655</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N24" t="n">
-        <v>5.136523137400279</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>5.794565025539262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.2884349016051067</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.297249372329444</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.001349517080983443</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.001442169627974835</v>
+      </c>
+      <c r="E25">
         <v>0.1371760185400709</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.335781969892761</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.1285077918516216</v>
+      </c>
+      <c r="I25">
+        <v>0.9524503226322494</v>
+      </c>
+      <c r="J25">
         <v>0.4154785184574</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>0.5502724714905616</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>1.048730849186589</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>0.6599167082719655</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.02410461513394402</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.1001802018931369</v>
       </c>
-      <c r="N25" t="n">
-        <v>5.246625782077445</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>6.327676549108308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.2432885691799593</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.094201644486575</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.001042808653487205</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.0011144038034351</v>
+      </c>
+      <c r="E26">
         <v>0.1059996506900548</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.4241456461803297</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.4900429114048199</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.06425389592581082</v>
+      </c>
+      <c r="I26">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="J26">
         <v>0.4668779228026453</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>0.618347416417229</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>2.495256158409469</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>1.570146650716055</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N26" t="n">
-        <v>7.550777651282985</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>8.091328303674867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.2297446694524152</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.033287326133714</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.001594883822980432</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.001704382287606624</v>
+      </c>
+      <c r="E27">
         <v>0.1621171128200838</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.4241456461803297</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.4900429114048199</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.05587295297896593</v>
+      </c>
+      <c r="I27">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="J27">
         <v>0.5097107597570166</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>0.6750765371894519</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>2.278277362026037</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>1.433612159349442</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N27" t="n">
-        <v>7.26522821636453</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>7.735319503735187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.2272365398732404</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.02200689680911</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.0006747585404917213</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.0007210848139874176</v>
+      </c>
+      <c r="E28">
         <v>0.06858800927003544</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.2474182936051924</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.2858583649861449</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I28">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J28">
         <v>0.2741301565079753</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>0.3630663729422262</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>1.229546512839449</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>0.7736954510774768</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N28" t="n">
-        <v>4.533649628793704</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>5.097674101754436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.2809105128675821</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.263408084355633</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.001901592250476669</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.002032148112146359</v>
+      </c>
+      <c r="E29">
         <v>0.1932934806700999</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.7952730865881183</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.9188304588840367</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.08380942946844891</v>
+      </c>
+      <c r="I29">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="J29">
         <v>0.449744788020897</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>0.5956557681083399</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>1.844319769259173</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>1.160543176616215</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.02142632456350579</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.08904906834945508</v>
       </c>
-      <c r="N29" t="n">
-        <v>7.614356110533532</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>8.319459349754249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.2503113320016491</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.125786846595466</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0009201252824887106</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.0009832974736192059</v>
+      </c>
+      <c r="E30">
         <v>0.09352910355004836</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.6362184692704946</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.7350643671072294</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.04469836238317274</v>
+      </c>
+      <c r="I30">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="J30">
         <v>0.5011441923661424</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>0.6637307130350072</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>0.9040783182643005</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>0.5688937140275563</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.0107131622817529</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.04452453417472754</v>
       </c>
-      <c r="N30" t="n">
-        <v>5.534914877956863</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>5.910963481272818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.2989690458376407</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.34462717549278</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.001594883822980432</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.001704382287606624</v>
+      </c>
+      <c r="E31">
         <v>0.1621171128200838</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.6185457340129812</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.7146459124653621</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.05587295297896593</v>
+      </c>
+      <c r="I31">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="J31">
         <v>0.4283283695437115</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>0.5672912077222284</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>1.265709645570021</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>0.796451199638579</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.01339145285219112</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.05565566771840942</v>
       </c>
-      <c r="N31" t="n">
-        <v>6.267327407496968</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>6.737418694867626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.3471251337577978</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.561211418525174</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.002269642363472153</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.002425467101594042</v>
+      </c>
+      <c r="E32">
         <v>0.2307051220901193</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.5832002634979537</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>0.6738090031816273</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I32">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J32">
         <v>0.3512292630258433</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>0.4651787903322273</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>1.627340972875741</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>1.024008685249602</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.01339145285219112</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.05565566771840942</v>
       </c>
-      <c r="N32" t="n">
-        <v>6.935125415470157</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>7.499259386895517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.3992942290046344</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.795844348476935</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.0005520751694932264</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.0005899784841715236</v>
+      </c>
+      <c r="E33">
         <v>0.05611746213002901</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.28276376412022</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.3266952742698798</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.05587295297896593</v>
+      </c>
+      <c r="I33">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="J33">
         <v>0.227014035858167</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>0.300664340092781</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.6870995218808683</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>0.4323592226609428</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>4.508404273663951</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>4.97842396588466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.4143430064796836</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.863526924424559</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E34">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.2474182936051924</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0.2858583649861449</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I34">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J34">
         <v>0.2312973195536041</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>0.3063372521700033</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N34" t="n">
-        <v>3.807722024255655</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>4.630202789279434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.2899397793526114</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.304017629924207</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E35">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.2297455583476787</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.2654399103442773</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.075428486521604</v>
+      </c>
+      <c r="I35">
+        <v>0.5590469285015375</v>
+      </c>
+      <c r="J35">
         <v>0.1199319434722392</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.1588415381622239</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.7594257873420127</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>0.4778707197831473</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N35" t="n">
-        <v>3.651721560723146</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>4.286209610184512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2758942537092321</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.240847225706426</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0003680501129954843</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.0003933189894476823</v>
+      </c>
+      <c r="E36">
         <v>0.03741164142001933</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.1590546173176237</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.1837660917768074</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.09219037241529379</v>
+      </c>
+      <c r="I36">
+        <v>0.6832795792796569</v>
+      </c>
+      <c r="J36">
         <v>0.1027988086904907</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.1361498898533348</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N36" t="n">
-        <v>2.694179358440238</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>3.469674579011641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1946308553439675</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.87536131558926</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0001226833709984948</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.0001311063298158941</v>
+      </c>
+      <c r="E37">
         <v>0.01247054714000645</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1944000878326512</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.2246030010605423</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I37">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J37">
         <v>0.1370650782539876</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.1815331864711131</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.3616313273057201</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.2275574856110225</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N37" t="n">
-        <v>2.43699441620751</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>3.000980985853564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1003251831669936</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.4512171729841546</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0001226833709984948</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.0001311063298158941</v>
+      </c>
+      <c r="E38">
         <v>0.01247054714000645</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.08836367628756872</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.1020922732093374</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.04749201003212105</v>
+      </c>
+      <c r="I38">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="J38">
         <v>0.05996597173611959</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.07942076908111197</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>1.188572683434662</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>1.588065626963606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.08678128343944945</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.3903028546312936</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0006747585404917213</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0007210848139874176</v>
+      </c>
+      <c r="E39">
         <v>0.06858800927003544</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.1590546173176237</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.1837660917768074</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.01117459059579319</v>
+      </c>
+      <c r="I39">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="J39">
         <v>0.09423224129961649</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.1248040656988903</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>1.343879447140905</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>1.437922131195607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.06671624680605073</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.3000594200344627</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0006747585404917213</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.0007210848139874176</v>
+      </c>
+      <c r="E40">
         <v>0.06858800927003544</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="J40">
         <v>0.07281582282243093</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.09643950531277885</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>1.017725931827971</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>1.017772258101466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.04113332509846738</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1849990409235034</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E41">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.05301820577254122</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.06125536392560248</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.03854955325893403</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.05105620869500056</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.1084893981917161</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.06826724568330676</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>0.6130649568045744</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>0.6130691682839831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.03511381410844776</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1579260105444542</v>
       </c>
-      <c r="D42" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E42">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.0353454705150275</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.04083690928373497</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.02141641847718557</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.02836456038611141</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>0.560975323737161</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>0.5609795352165696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.02558292170758335</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1150603791109595</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E43">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.0353454705150275</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.04083690928373497</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.005587295297896593</v>
+      </c>
+      <c r="I43">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="J43">
         <v>0.03854955325893403</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.05105620869500056</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.2169787963834321</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.1365344913666135</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>0.678834576087793</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>0.7258453894166221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.04564795834098209</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2053038137077904</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0001226833709984948</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0001311063298158941</v>
+      </c>
+      <c r="E44">
         <v>0.01247054714000645</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="J44">
         <v>0.05139940434524536</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.06807494492666741</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.3977944600362923</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.2503132341721247</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>1.031127046040107</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>1.031135468998924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1565072857405099</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.7038987898552811</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E45">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.2120728230901649</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.2450214557024099</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.01396823824474148</v>
+      </c>
+      <c r="I45">
+        <v>0.1035272089817662</v>
+      </c>
+      <c r="J45">
         <v>0.2141641847718557</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.2836456038611142</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.0107131622817529</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.04452453417472754</v>
       </c>
-      <c r="N45" t="n">
-        <v>2.419707616869392</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>2.537215698534126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.2748910018775623</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.236335053976584</v>
       </c>
-      <c r="D46" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E46">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.335781969892761</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I46">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J46">
         <v>0.2869800075942867</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>0.3800851091738931</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>1.482688441953453</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>0.9329856910051921</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N46" t="n">
-        <v>5.337803953038837</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>6.1602762951038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.3501348892528076</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.574747933714699</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E47">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.3004364993777336</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.3471137289117474</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.08380942946844891</v>
+      </c>
+      <c r="I47">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="J47">
         <v>0.149914929340299</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>0.19855192270278</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>0.6509363891502964</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>0.4096034740998407</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N47" t="n">
-        <v>4.01413903643083</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>4.719124354228103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.3200373343027096</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.439382781819453</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.001042808653487205</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.0011144038034351</v>
+      </c>
+      <c r="E48">
         <v>0.1059996506900548</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.4771638519528711</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0.5512982753304221</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.08660307711739718</v>
+      </c>
+      <c r="I48">
+        <v>0.6418686956869507</v>
+      </c>
+      <c r="J48">
         <v>0.2398638869444784</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>0.3176830763244479</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>0.9402414509948727</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>0.5916494625886587</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.0107131622817529</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.04452453417472754</v>
       </c>
-      <c r="N48" t="n">
-        <v>5.039600276057935</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>5.76814364401223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.2884349016051067</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.297249372329444</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.001349517080983443</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.001442169627974835</v>
+      </c>
+      <c r="E49">
         <v>0.1371760185400709</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.335781969892761</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.1285077918516216</v>
+      </c>
+      <c r="I49">
+        <v>0.9524503226322494</v>
+      </c>
+      <c r="J49">
         <v>0.4154785184574</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>0.5502724714905616</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>1.048730849186589</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>0.6599167082719655</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.02410461513394402</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.1001802018931369</v>
       </c>
-      <c r="N49" t="n">
-        <v>5.246625782077445</v>
+      <c r="P49">
+        <v>6.327676549108308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.2362658063582698</v>
+        <v>1.047232222777196</v>
       </c>
       <c r="C2">
-        <v>1.062616442377684</v>
+        <v>4.709975582430815</v>
       </c>
       <c r="D2">
-        <v>0.001311063298158941</v>
+        <v>0.005811199483731523</v>
       </c>
       <c r="E2">
-        <v>0.1247054714000644</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="F2">
-        <v>0.4771638519528711</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G2">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H2">
-        <v>0.06425389592581082</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I2">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J2">
-        <v>0.4368949369345855</v>
+        <v>1.936507288034379</v>
       </c>
       <c r="K2">
-        <v>0.578637031876673</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="L2">
-        <v>2.097461698373178</v>
+        <v>9.296857257654084</v>
       </c>
       <c r="M2">
-        <v>1.319833416543931</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="N2">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O2">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P2">
-        <v>7.468095324030134</v>
+        <v>33.10182792272815</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.2367674322741049</v>
+        <v>1.049455645755492</v>
       </c>
       <c r="C3">
-        <v>1.064872528242605</v>
+        <v>4.719975530588841</v>
       </c>
       <c r="D3">
-        <v>0.001507722792882782</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E3">
-        <v>0.1434112921100741</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F3">
-        <v>0.4771638519528711</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G3">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H3">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I3">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J3">
-        <v>0.449744788020897</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K3">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L3">
-        <v>1.771993503798029</v>
+        <v>7.854241476293966</v>
       </c>
       <c r="M3">
-        <v>1.11503167949401</v>
+        <v>4.942302579378856</v>
       </c>
       <c r="N3">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O3">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P3">
-        <v>7.012853261153834</v>
+        <v>31.0839982386278</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.2417836914324544</v>
+        <v>1.071689875538447</v>
       </c>
       <c r="C4">
-        <v>1.087433386891813</v>
+        <v>4.819975012169113</v>
       </c>
       <c r="D4">
-        <v>0.0009177443087112589</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E4">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F4">
-        <v>0.3181092346352473</v>
+        <v>1.409997688653529</v>
       </c>
       <c r="G4">
-        <v>0.3675321835536147</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="H4">
-        <v>0.05307930533001765</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I4">
-        <v>0.3934033941307115</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J4">
-        <v>0.3255295608532208</v>
+        <v>1.442887783241302</v>
       </c>
       <c r="K4">
-        <v>0.4311413178688935</v>
+        <v>1.911004760283745</v>
       </c>
       <c r="L4">
-        <v>1.193383380108877</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M4">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N4">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O4">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P4">
-        <v>5.27816557983822</v>
+        <v>23.39511229982347</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.2804088869517469</v>
+        <v>1.242893444867204</v>
       </c>
       <c r="C5">
-        <v>1.261151998490712</v>
+        <v>5.58997102033721</v>
       </c>
       <c r="D5">
-        <v>0.002032148112146359</v>
+        <v>0.009007359199783861</v>
       </c>
       <c r="E5">
-        <v>0.1932934806700999</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="F5">
-        <v>0.6362184692704946</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G5">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H5">
-        <v>0.05028565768106934</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I5">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J5">
-        <v>0.4711612064980825</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K5">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L5">
-        <v>1.338035911031165</v>
+        <v>5.930753767813813</v>
       </c>
       <c r="M5">
-        <v>0.8419626967607834</v>
+        <v>3.731942764020769</v>
       </c>
       <c r="N5">
-        <v>0.01339145285219112</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O5">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P5">
-        <v>6.87538022397294</v>
+        <v>30.47465829004222</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.2944544125951259</v>
+        <v>1.305149288259477</v>
       </c>
       <c r="C6">
-        <v>1.324322402708493</v>
+        <v>5.869969568761972</v>
       </c>
       <c r="D6">
-        <v>0.001245510133250994</v>
+        <v>0.005520639509544946</v>
       </c>
       <c r="E6">
-        <v>0.1184701978300612</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="F6">
-        <v>0.6008729987554672</v>
+        <v>2.663328967456664</v>
       </c>
       <c r="G6">
-        <v>0.6942274578234947</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="H6">
-        <v>0.05307930533001765</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I6">
-        <v>0.3934033941307115</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J6">
-        <v>0.4925776249752681</v>
+        <v>2.183317040430917</v>
       </c>
       <c r="K6">
-        <v>0.6523848888805627</v>
+        <v>2.891651939903035</v>
       </c>
       <c r="L6">
-        <v>1.229546512839449</v>
+        <v>5.44988184069377</v>
       </c>
       <c r="M6">
-        <v>0.7736954510774768</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="N6">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O6">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P6">
-        <v>6.669708429421739</v>
+        <v>29.56303195743689</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.2904414052684464</v>
+        <v>1.287361904433114</v>
       </c>
       <c r="C7">
-        <v>1.306273715789128</v>
+        <v>5.789969983497756</v>
       </c>
       <c r="D7">
-        <v>0.002556573431409935</v>
+        <v>0.01133183899327647</v>
       </c>
       <c r="E7">
-        <v>0.2431756692301257</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="F7">
-        <v>0.4594911166953574</v>
+        <v>2.036663328055098</v>
       </c>
       <c r="G7">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H7">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I7">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J7">
-        <v>0.4711612064980825</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K7">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L7">
-        <v>1.193383380108877</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M7">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N7">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O7">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P7">
-        <v>6.477729337750405</v>
+        <v>28.71209760516395</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.3396007450202732</v>
+        <v>1.505257356306076</v>
       </c>
       <c r="C8">
-        <v>1.527370130551363</v>
+        <v>6.769964902984418</v>
       </c>
       <c r="D8">
-        <v>0.00288433925594967</v>
+        <v>0.01278463886420935</v>
       </c>
       <c r="E8">
-        <v>0.2743520370801418</v>
+        <v>1.216046867057926</v>
       </c>
       <c r="F8">
-        <v>0.6362184692704946</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G8">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H8">
-        <v>0.06984119122370744</v>
+        <v>0.309566361099676</v>
       </c>
       <c r="I8">
-        <v>0.5176360449088312</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="J8">
-        <v>0.3512292630258433</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K8">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L8">
-        <v>0.9040783182643005</v>
+        <v>4.007266059333657</v>
       </c>
       <c r="M8">
-        <v>0.5688937140275563</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="N8">
-        <v>0.01874803399306757</v>
+        <v>0.08309939391521838</v>
       </c>
       <c r="O8">
-        <v>0.07791793480577316</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="P8">
-        <v>6.489013378866757</v>
+        <v>28.76211335497698</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.3932747180146149</v>
+        <v>1.743163614983699</v>
       </c>
       <c r="C9">
-        <v>1.768771318097885</v>
+        <v>7.839959355893333</v>
       </c>
       <c r="D9">
-        <v>0.0007866379788953647</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E9">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F9">
-        <v>0.3888001756653024</v>
+        <v>1.723330508354313</v>
       </c>
       <c r="G9">
-        <v>0.4492060021210847</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="H9">
-        <v>0.06146024827686252</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I9">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J9">
-        <v>0.261280305421664</v>
+        <v>1.158107299706834</v>
       </c>
       <c r="K9">
-        <v>0.3460476367105594</v>
+        <v>1.533832768122479</v>
       </c>
       <c r="L9">
-        <v>0.7594257873420127</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M9">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="P9">
-        <v>5.437266551771838</v>
+        <v>24.10031660785356</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.3757178109603912</v>
+        <v>1.665343810743354</v>
       </c>
       <c r="C10">
-        <v>1.689808312825658</v>
+        <v>7.489961170362379</v>
       </c>
       <c r="D10">
-        <v>0.0004588721543556294</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E10">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F10">
-        <v>0.3711274404077886</v>
+        <v>1.644997303429117</v>
       </c>
       <c r="G10">
-        <v>0.4287875474792174</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="H10">
-        <v>0.1005713153621387</v>
+        <v>0.4457755599835335</v>
       </c>
       <c r="I10">
-        <v>0.7453959046687169</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="J10">
-        <v>0.2098809010764185</v>
+        <v>0.9302829128792606</v>
       </c>
       <c r="K10">
-        <v>0.2779726917838919</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="L10">
-        <v>0.3977944600362923</v>
+        <v>1.763197066106808</v>
       </c>
       <c r="M10">
-        <v>0.2503132341721247</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="N10">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O10">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P10">
-        <v>4.905284830031136</v>
+        <v>21.74234357094882</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.2713796204667175</v>
+        <v>1.202871831257884</v>
       </c>
       <c r="C11">
-        <v>1.220542452922139</v>
+        <v>5.409971953492723</v>
       </c>
       <c r="D11">
-        <v>0.0003933189894476823</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E11">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F11">
-        <v>0.3004364993777336</v>
+        <v>1.331664483728332</v>
       </c>
       <c r="G11">
-        <v>0.3471137289117474</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H11">
-        <v>0.08380942946844891</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I11">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J11">
-        <v>0.09423224129961649</v>
+        <v>0.4176780425172189</v>
       </c>
       <c r="K11">
-        <v>0.1248040656988903</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="L11">
-        <v>0.6147732564197246</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M11">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N11">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O11">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P11">
-        <v>4.116716658517941</v>
+        <v>18.24706843234979</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.2437901950957944</v>
+        <v>1.080583567451629</v>
       </c>
       <c r="C12">
-        <v>1.096457730351496</v>
+        <v>4.859974804801222</v>
       </c>
       <c r="D12">
-        <v>0.001179956968343047</v>
+        <v>0.005230079535358371</v>
       </c>
       <c r="E12">
-        <v>0.112234924260058</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="F12">
-        <v>0.2650910288627061</v>
+        <v>1.174998073877941</v>
       </c>
       <c r="G12">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H12">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I12">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J12">
-        <v>0.08994895760417938</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K12">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L12">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M12">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N12">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O12">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P12">
-        <v>3.389166447709286</v>
+        <v>15.02225128173845</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.1775755742055786</v>
+        <v>0.7870917343166192</v>
       </c>
       <c r="C13">
-        <v>0.7986543961819537</v>
+        <v>3.539981647941632</v>
       </c>
       <c r="D13">
-        <v>0.0002622126596317883</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E13">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F13">
-        <v>0.2297455583476787</v>
+        <v>1.018331664027549</v>
       </c>
       <c r="G13">
-        <v>0.2654399103442773</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="H13">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I13">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J13">
-        <v>0.06853253912699382</v>
+        <v>0.3037658491034321</v>
       </c>
       <c r="K13">
-        <v>0.09076659323555654</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="L13">
-        <v>0.2893050618445762</v>
+        <v>1.282325138986771</v>
       </c>
       <c r="M13">
-        <v>0.1820459884888181</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="N13">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O13">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P13">
-        <v>2.752054678407037</v>
+        <v>12.19829641239876</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.09129591668196417</v>
+        <v>0.404662982049787</v>
       </c>
       <c r="C14">
-        <v>0.4106076274155807</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="D14">
-        <v>0.0001311063298158941</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E14">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F14">
-        <v>0.08836367628756872</v>
+        <v>0.3916660246259802</v>
       </c>
       <c r="G14">
-        <v>0.1020922732093374</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="H14">
-        <v>0.04749201003212105</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I14">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J14">
-        <v>0.05139940434524536</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K14">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L14">
-        <v>0.1084893981917161</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M14">
-        <v>0.06826724568330676</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="P14">
-        <v>1.400676660781335</v>
+        <v>6.208404658598349</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.07424063554357523</v>
+        <v>0.329066600787739</v>
       </c>
       <c r="C15">
-        <v>0.3339007080082744</v>
+        <v>1.479992327388027</v>
       </c>
       <c r="D15">
-        <v>0.0004588721543556294</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E15">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F15">
-        <v>0.14138188206011</v>
+        <v>0.6266656394015684</v>
       </c>
       <c r="G15">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H15">
-        <v>0.01676188589368978</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I15">
-        <v>0.1242326507781195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J15">
-        <v>0.1284985108631134</v>
+        <v>0.569560967068935</v>
       </c>
       <c r="K15">
-        <v>0.1701873623166685</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="L15">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M15">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P15">
-        <v>1.49125146620124</v>
+        <v>6.609871363702795</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.06069673581603111</v>
+        <v>0.2690341803737593</v>
       </c>
       <c r="C16">
-        <v>0.2729863896554134</v>
+        <v>1.209993727121292</v>
       </c>
       <c r="D16">
-        <v>0.0003933189894476823</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E16">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="J16">
-        <v>0.05568268804068247</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K16">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L16">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M16">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P16">
-        <v>0.795513037383855</v>
+        <v>3.526057787323033</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.03310731044510788</v>
+        <v>0.1467459165675052</v>
       </c>
       <c r="C17">
-        <v>0.148901667084771</v>
+        <v>0.6599965784297956</v>
       </c>
       <c r="D17">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E17">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F17">
-        <v>0.05301820577254122</v>
+        <v>0.2349996147755881</v>
       </c>
       <c r="G17">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="J17">
-        <v>0.03854955325893403</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K17">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L17">
-        <v>0.07232626546114405</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M17">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P17">
-        <v>0.5100268985002169</v>
+        <v>2.260659766325286</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.02608454762341834</v>
+        <v>0.1156179948713677</v>
       </c>
       <c r="C18">
-        <v>0.1173164649758802</v>
+        <v>0.5199973042174146</v>
       </c>
       <c r="D18">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E18">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F18">
-        <v>0.01767273525751375</v>
+        <v>0.07833320492519605</v>
       </c>
       <c r="G18">
-        <v>0.02041845464186749</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="J18">
-        <v>0.02141641847718557</v>
+        <v>0.09492682784482251</v>
       </c>
       <c r="K18">
-        <v>0.02836456038611141</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="L18">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M18">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P18">
-        <v>0.473249533263585</v>
+        <v>2.097646579871026</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.02508129579174839</v>
+        <v>0.1111711489147767</v>
       </c>
       <c r="C19">
-        <v>0.1128042932460386</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="D19">
-        <v>0.0003277658245397354</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E19">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F19">
-        <v>0.0353454705150275</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G19">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H19">
-        <v>0.01117459059579319</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I19">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J19">
-        <v>0.05139940434524536</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K19">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L19">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M19">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P19">
-        <v>0.6947183347309214</v>
+        <v>3.079292078266787</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.04614958425681704</v>
+        <v>0.204554914003189</v>
       </c>
       <c r="C20">
-        <v>0.2075598995727111</v>
+        <v>0.9199952305385036</v>
       </c>
       <c r="D20">
-        <v>0.0001311063298158941</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E20">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="J20">
-        <v>0.04711612064980825</v>
+        <v>0.2088390212586095</v>
       </c>
       <c r="K20">
-        <v>0.06240203284944514</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="L20">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M20">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="P20">
-        <v>0.9060992224236724</v>
+        <v>4.016223580472493</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.1555040339088401</v>
+        <v>0.6892611232716153</v>
       </c>
       <c r="C21">
-        <v>0.6993866181254399</v>
+        <v>3.099983928988435</v>
       </c>
       <c r="D21">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E21">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F21">
-        <v>0.3888001756653024</v>
+        <v>1.723330508354313</v>
       </c>
       <c r="G21">
-        <v>0.4492060021210847</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="H21">
-        <v>0.01676188589368978</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I21">
-        <v>0.1242326507781195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J21">
-        <v>0.1584814967311732</v>
+        <v>0.7024585260516865</v>
       </c>
       <c r="K21">
-        <v>0.2098977468572246</v>
+        <v>0.9303575806644546</v>
       </c>
       <c r="L21">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M21">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N21">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O21">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P21">
-        <v>2.779061870138916</v>
+        <v>12.31800396494006</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.266363361308368</v>
+        <v>1.180637601474928</v>
       </c>
       <c r="C22">
-        <v>1.19798159427293</v>
+        <v>5.309972471912445</v>
       </c>
       <c r="D22">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E22">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F22">
-        <v>0.5125093224678984</v>
+        <v>2.271662942830686</v>
       </c>
       <c r="G22">
-        <v>0.5921351846141573</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H22">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I22">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J22">
-        <v>0.2826967238988495</v>
+        <v>1.253034127551657</v>
       </c>
       <c r="K22">
-        <v>0.3744121970966706</v>
+        <v>1.659556765509567</v>
       </c>
       <c r="L22">
-        <v>1.121057114647733</v>
+        <v>4.969009913573735</v>
       </c>
       <c r="M22">
-        <v>0.7054282053941697</v>
+        <v>3.126762856341726</v>
       </c>
       <c r="N22">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O22">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P22">
-        <v>5.907763738605183</v>
+        <v>26.18576359814189</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.3441153782627879</v>
+        <v>1.525268163110736</v>
       </c>
       <c r="C23">
-        <v>1.547674903335651</v>
+        <v>6.859964436406665</v>
       </c>
       <c r="D23">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E23">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F23">
-        <v>0.2474182936051924</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G23">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H23">
-        <v>0.08939672476634548</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I23">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J23">
-        <v>0.1670480641220475</v>
+        <v>0.7404292571896155</v>
       </c>
       <c r="K23">
-        <v>0.2212435710116691</v>
+        <v>0.9806471796192898</v>
       </c>
       <c r="L23">
-        <v>0.5786101236891524</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M23">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N23">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O23">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P23">
-        <v>4.554552866672903</v>
+        <v>20.18774784146908</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.3335812340302535</v>
+        <v>1.478576280566529</v>
       </c>
       <c r="C24">
-        <v>1.500297100172314</v>
+        <v>6.649965525088093</v>
       </c>
       <c r="D24">
-        <v>0.001048850638527153</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E24">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F24">
-        <v>0.4241456461803297</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G24">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H24">
-        <v>0.07822213417055232</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I24">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J24">
-        <v>0.2312973195536041</v>
+        <v>1.025209740724083</v>
       </c>
       <c r="K24">
-        <v>0.3063372521700033</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="L24">
-        <v>1.048730849186589</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M24">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N24">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O24">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P24">
-        <v>5.794565025539262</v>
+        <v>25.68401795103888</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.2884349016051067</v>
+        <v>1.278468212519932</v>
       </c>
       <c r="C25">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D25">
-        <v>0.001442169627974835</v>
+        <v>0.006392319432104675</v>
       </c>
       <c r="E25">
-        <v>0.1371760185400709</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="F25">
-        <v>0.335781969892761</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G25">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H25">
-        <v>0.1285077918516216</v>
+        <v>0.5696021044234042</v>
       </c>
       <c r="I25">
-        <v>0.9524503226322494</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="J25">
-        <v>0.4154785184574</v>
+        <v>1.841580460189556</v>
       </c>
       <c r="K25">
-        <v>0.5502724714905616</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="L25">
-        <v>1.048730849186589</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M25">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N25">
-        <v>0.02410461513394402</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O25">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P25">
-        <v>6.327676549108308</v>
+        <v>28.04699875820979</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.2432885691799593</v>
+        <v>1.078360144473334</v>
       </c>
       <c r="C26">
-        <v>1.094201644486575</v>
+        <v>4.849974856643195</v>
       </c>
       <c r="D26">
-        <v>0.0011144038034351</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E26">
-        <v>0.1059996506900548</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F26">
-        <v>0.4241456461803297</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G26">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H26">
-        <v>0.06425389592581082</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I26">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J26">
-        <v>0.4668779228026453</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K26">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L26">
-        <v>2.495256158409469</v>
+        <v>11.06005432376089</v>
       </c>
       <c r="M26">
-        <v>1.570146650716055</v>
+        <v>6.959568938308999</v>
       </c>
       <c r="N26">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O26">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P26">
-        <v>8.091328303674867</v>
+        <v>35.86426599466697</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.2297446694524152</v>
+        <v>1.018327724059354</v>
       </c>
       <c r="C27">
-        <v>1.033287326133714</v>
+        <v>4.579976256376463</v>
       </c>
       <c r="D27">
-        <v>0.001704382287606624</v>
+        <v>0.00755455932885098</v>
       </c>
       <c r="E27">
-        <v>0.1621171128200838</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="F27">
-        <v>0.4241456461803297</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G27">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H27">
-        <v>0.05587295297896593</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I27">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J27">
-        <v>0.5097107597570166</v>
+        <v>2.259258502706775</v>
       </c>
       <c r="K27">
-        <v>0.6750765371894519</v>
+        <v>2.992231137812705</v>
       </c>
       <c r="L27">
-        <v>2.278277362026037</v>
+        <v>10.09831046952082</v>
       </c>
       <c r="M27">
-        <v>1.433612159349442</v>
+        <v>6.354389030629958</v>
       </c>
       <c r="N27">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O27">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P27">
-        <v>7.735319503735187</v>
+        <v>34.286281043583</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.2272365398732404</v>
+        <v>1.007210609167876</v>
       </c>
       <c r="C28">
-        <v>1.02200689680911</v>
+        <v>4.529976515586326</v>
       </c>
       <c r="D28">
-        <v>0.0007210848139874176</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E28">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F28">
-        <v>0.2474182936051924</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G28">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H28">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I28">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J28">
-        <v>0.2741301565079753</v>
+        <v>1.215063396413728</v>
       </c>
       <c r="K28">
-        <v>0.3630663729422262</v>
+        <v>1.609267166554732</v>
       </c>
       <c r="L28">
-        <v>1.229546512839449</v>
+        <v>5.44988184069377</v>
       </c>
       <c r="M28">
-        <v>0.7736954510774768</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="N28">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O28">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P28">
-        <v>5.097674101754436</v>
+        <v>22.59509601858722</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.2809105128675821</v>
+        <v>1.245116867845498</v>
       </c>
       <c r="C29">
-        <v>1.263408084355633</v>
+        <v>5.599970968495233</v>
       </c>
       <c r="D29">
-        <v>0.002032148112146359</v>
+        <v>0.009007359199783861</v>
       </c>
       <c r="E29">
-        <v>0.1932934806700999</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="F29">
-        <v>0.7952730865881183</v>
+        <v>3.524994221633821</v>
       </c>
       <c r="G29">
-        <v>0.9188304588840367</v>
+        <v>4.07265392586438</v>
       </c>
       <c r="H29">
-        <v>0.08380942946844891</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I29">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J29">
-        <v>0.449744788020897</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K29">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L29">
-        <v>1.844319769259173</v>
+        <v>8.174822761040659</v>
       </c>
       <c r="M29">
-        <v>1.160543176616215</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="N29">
-        <v>0.02142632456350579</v>
+        <v>0.09497073590310677</v>
       </c>
       <c r="O29">
-        <v>0.08904906834945508</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="P29">
-        <v>8.319459349754249</v>
+        <v>36.87544144215396</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.2503113320016491</v>
+        <v>1.109488066169471</v>
       </c>
       <c r="C30">
-        <v>1.125786846595466</v>
+        <v>4.989974130855575</v>
       </c>
       <c r="D30">
-        <v>0.0009832974736192059</v>
+        <v>0.004358399612798641</v>
       </c>
       <c r="E30">
-        <v>0.09352910355004836</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="F30">
-        <v>0.6362184692704946</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G30">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H30">
-        <v>0.04469836238317274</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I30">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J30">
-        <v>0.5011441923661424</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K30">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L30">
-        <v>0.9040783182643005</v>
+        <v>4.007266059333657</v>
       </c>
       <c r="M30">
-        <v>0.5688937140275563</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="N30">
-        <v>0.0107131622817529</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O30">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P30">
-        <v>5.910963481272818</v>
+        <v>26.19994624131736</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.2989690458376407</v>
+        <v>1.325160095064138</v>
       </c>
       <c r="C31">
-        <v>1.34462717549278</v>
+        <v>5.959969102184219</v>
       </c>
       <c r="D31">
-        <v>0.001704382287606624</v>
+        <v>0.00755455932885098</v>
       </c>
       <c r="E31">
-        <v>0.1621171128200838</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="F31">
-        <v>0.6185457340129812</v>
+        <v>2.741662172381861</v>
       </c>
       <c r="G31">
-        <v>0.7146459124653621</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="H31">
-        <v>0.05587295297896593</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I31">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J31">
-        <v>0.4283283695437115</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K31">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L31">
-        <v>1.265709645570021</v>
+        <v>5.610172483067117</v>
       </c>
       <c r="M31">
-        <v>0.796451199638579</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="N31">
-        <v>0.01339145285219112</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O31">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P31">
-        <v>6.737418694867626</v>
+        <v>29.86315313400786</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.3471251337577978</v>
+        <v>1.538608700980509</v>
       </c>
       <c r="C32">
-        <v>1.561211418525174</v>
+        <v>6.919964125354826</v>
       </c>
       <c r="D32">
-        <v>0.002425467101594042</v>
+        <v>0.01075071904490332</v>
       </c>
       <c r="E32">
-        <v>0.2307051220901193</v>
+        <v>1.022584865480528</v>
       </c>
       <c r="F32">
-        <v>0.5832002634979537</v>
+        <v>2.584995762531469</v>
       </c>
       <c r="G32">
-        <v>0.6738090031816273</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="H32">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I32">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J32">
-        <v>0.3512292630258433</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K32">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L32">
-        <v>1.627340972875741</v>
+        <v>7.213078906800581</v>
       </c>
       <c r="M32">
-        <v>1.024008685249602</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="N32">
-        <v>0.01339145285219112</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O32">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P32">
-        <v>7.499259386895517</v>
+        <v>33.23996052569904</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.3992942290046344</v>
+        <v>1.769844690723245</v>
       </c>
       <c r="C33">
-        <v>1.795844348476935</v>
+        <v>7.959958733789653</v>
       </c>
       <c r="D33">
-        <v>0.0005899784841715236</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E33">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F33">
-        <v>0.28276376412022</v>
+        <v>1.253331278803137</v>
       </c>
       <c r="G33">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H33">
-        <v>0.05587295297896593</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I33">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J33">
-        <v>0.227014035858167</v>
+        <v>1.006224375155119</v>
       </c>
       <c r="K33">
-        <v>0.300664340092781</v>
+        <v>1.332674372303138</v>
       </c>
       <c r="L33">
-        <v>0.6870995218808683</v>
+        <v>3.045522205093577</v>
       </c>
       <c r="M33">
-        <v>0.4323592226609428</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="P33">
-        <v>4.97842396588466</v>
+        <v>22.06652784878605</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.4143430064796836</v>
+        <v>1.83654738007211</v>
       </c>
       <c r="C34">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D34">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E34">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F34">
-        <v>0.2474182936051924</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G34">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H34">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I34">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J34">
-        <v>0.2312973195536041</v>
+        <v>1.025209740724083</v>
       </c>
       <c r="K34">
-        <v>0.3063372521700033</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="L34">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M34">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N34">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O34">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P34">
-        <v>4.630202789279434</v>
+        <v>20.52306101194127</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.2899397793526114</v>
+        <v>1.285138481454817</v>
       </c>
       <c r="C35">
-        <v>1.304017629924207</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="D35">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E35">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F35">
-        <v>0.2297455583476787</v>
+        <v>1.018331664027549</v>
       </c>
       <c r="G35">
-        <v>0.2654399103442773</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="H35">
-        <v>0.075428486521604</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I35">
-        <v>0.5590469285015375</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J35">
-        <v>0.1199319434722392</v>
+        <v>0.5315902359310061</v>
       </c>
       <c r="K35">
-        <v>0.1588415381622239</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="L35">
-        <v>0.7594257873420127</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M35">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="N35">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O35">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P35">
-        <v>4.286209610184512</v>
+        <v>18.9983344883854</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.2758942537092321</v>
+        <v>1.222882638062543</v>
       </c>
       <c r="C36">
-        <v>1.240847225706426</v>
+        <v>5.499971486914966</v>
       </c>
       <c r="D36">
-        <v>0.0003933189894476823</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E36">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F36">
-        <v>0.1590546173176237</v>
+        <v>0.7049988443267644</v>
       </c>
       <c r="G36">
-        <v>0.1837660917768074</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="H36">
-        <v>0.09219037241529379</v>
+        <v>0.4086275966515725</v>
       </c>
       <c r="I36">
-        <v>0.6832795792796569</v>
+        <v>3.02859056761794</v>
       </c>
       <c r="J36">
-        <v>0.1027988086904907</v>
+        <v>0.4556487736551481</v>
       </c>
       <c r="K36">
-        <v>0.1361498898533348</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="L36">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M36">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N36">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O36">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P36">
-        <v>3.469674579011641</v>
+        <v>15.37909813399754</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.1946308553439675</v>
+        <v>0.8626881155786668</v>
       </c>
       <c r="C37">
-        <v>0.87536131558926</v>
+        <v>3.879979885314557</v>
       </c>
       <c r="D37">
-        <v>0.0001311063298158941</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E37">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F37">
-        <v>0.1944000878326512</v>
+        <v>0.8616652541771566</v>
       </c>
       <c r="G37">
-        <v>0.2246030010605423</v>
+        <v>0.9955376263224038</v>
       </c>
       <c r="H37">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I37">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J37">
-        <v>0.1370650782539876</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K37">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L37">
-        <v>0.3616313273057201</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M37">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N37">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O37">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P37">
-        <v>3.000980985853564</v>
+        <v>13.30164545081039</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.1003251831669936</v>
+        <v>0.4446845956591068</v>
       </c>
       <c r="C38">
-        <v>0.4512171729841546</v>
+        <v>1.999989631605441</v>
       </c>
       <c r="D38">
-        <v>0.0001311063298158941</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E38">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F38">
-        <v>0.08836367628756872</v>
+        <v>0.3916660246259802</v>
       </c>
       <c r="G38">
-        <v>0.1020922732093374</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="H38">
-        <v>0.04749201003212105</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I38">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J38">
-        <v>0.05996597173611959</v>
+        <v>0.265795117965503</v>
       </c>
       <c r="K38">
-        <v>0.07942076908111197</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="L38">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M38">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P38">
-        <v>1.588065626963606</v>
+        <v>7.038993589784631</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.08678128343944945</v>
+        <v>0.3846521752451272</v>
       </c>
       <c r="C39">
-        <v>0.3903028546312936</v>
+        <v>1.729991031338707</v>
       </c>
       <c r="D39">
-        <v>0.0007210848139874176</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E39">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F39">
-        <v>0.1590546173176237</v>
+        <v>0.7049988443267644</v>
       </c>
       <c r="G39">
-        <v>0.1837660917768074</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="H39">
-        <v>0.01117459059579319</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I39">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J39">
-        <v>0.09423224129961649</v>
+        <v>0.4176780425172189</v>
       </c>
       <c r="K39">
-        <v>0.1248040656988903</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="L39">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M39">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P39">
-        <v>1.437922131195607</v>
+        <v>6.373492689623771</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.06671624680605073</v>
+        <v>0.295715256113306</v>
       </c>
       <c r="C40">
-        <v>0.3000594200344627</v>
+        <v>1.329993105017618</v>
       </c>
       <c r="D40">
-        <v>0.0007210848139874176</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E40">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="J40">
-        <v>0.07281582282243093</v>
+        <v>0.3227512146723966</v>
       </c>
       <c r="K40">
-        <v>0.09643950531277885</v>
+        <v>0.4274615911161008</v>
       </c>
       <c r="L40">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M40">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P40">
-        <v>1.017772258101466</v>
+        <v>4.511206765638931</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.04113332509846738</v>
+        <v>0.1823206842202338</v>
       </c>
       <c r="C41">
-        <v>0.1849990409235034</v>
+        <v>0.8199957489582312</v>
       </c>
       <c r="D41">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E41">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F41">
-        <v>0.05301820577254122</v>
+        <v>0.2349996147755881</v>
       </c>
       <c r="G41">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="J41">
-        <v>0.03854955325893403</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K41">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L41">
-        <v>0.1084893981917161</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M41">
-        <v>0.06826724568330676</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="P41">
-        <v>0.6130691682839831</v>
+        <v>2.717387664826303</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.03511381410844776</v>
+        <v>0.1556396084806873</v>
       </c>
       <c r="C42">
-        <v>0.1579260105444542</v>
+        <v>0.6999963710619042</v>
       </c>
       <c r="D42">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E42">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F42">
-        <v>0.0353454705150275</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G42">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J42">
-        <v>0.02141641847718557</v>
+        <v>0.09492682784482251</v>
       </c>
       <c r="K42">
-        <v>0.02836456038611141</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="L42">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M42">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P42">
-        <v>0.5609795352165696</v>
+        <v>2.486503885824795</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.02558292170758335</v>
+        <v>0.1133945718930721</v>
       </c>
       <c r="C43">
-        <v>0.1150603791109595</v>
+        <v>0.5099973560593879</v>
       </c>
       <c r="D43">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E43">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F43">
-        <v>0.0353454705150275</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G43">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H43">
-        <v>0.005587295297896593</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I43">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J43">
-        <v>0.03854955325893403</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K43">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L43">
-        <v>0.2169787963834321</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M43">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P43">
-        <v>0.7258453894166221</v>
+        <v>3.217260644981784</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.04564795834098209</v>
+        <v>0.2023314910248935</v>
       </c>
       <c r="C44">
-        <v>0.2053038137077904</v>
+        <v>0.9099952823804761</v>
       </c>
       <c r="D44">
-        <v>0.0001311063298158941</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E44">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="J44">
-        <v>0.05139940434524536</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K44">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L44">
-        <v>0.3977944600362923</v>
+        <v>1.763197066106808</v>
       </c>
       <c r="M44">
-        <v>0.2503132341721247</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="P44">
-        <v>1.031135468998924</v>
+        <v>4.57043829502226</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.1565072857405099</v>
+        <v>0.6937079692282063</v>
       </c>
       <c r="C45">
-        <v>0.7038987898552811</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="D45">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E45">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F45">
-        <v>0.2120728230901649</v>
+        <v>0.9399984591023526</v>
       </c>
       <c r="G45">
-        <v>0.2450214557024099</v>
+        <v>1.086041046897168</v>
       </c>
       <c r="H45">
-        <v>0.01396823824474148</v>
+        <v>0.06191327221993522</v>
       </c>
       <c r="I45">
-        <v>0.1035272089817662</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="J45">
-        <v>0.2141641847718557</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K45">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L45">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M45">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N45">
-        <v>0.0107131622817529</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O45">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P45">
-        <v>2.537215698534126</v>
+        <v>11.24603715025937</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.2748910018775623</v>
+        <v>1.218435792105952</v>
       </c>
       <c r="C46">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D46">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E46">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F46">
-        <v>0.335781969892761</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G46">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H46">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I46">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J46">
-        <v>0.2869800075942867</v>
+        <v>1.272019493120621</v>
       </c>
       <c r="K46">
-        <v>0.3800851091738931</v>
+        <v>1.684701564986985</v>
       </c>
       <c r="L46">
-        <v>1.482688441953453</v>
+        <v>6.571916337307199</v>
       </c>
       <c r="M46">
-        <v>0.9329856910051921</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="N46">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O46">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P46">
-        <v>6.1602762951038</v>
+        <v>27.30500844316279</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.3501348892528076</v>
+        <v>1.551949238850282</v>
       </c>
       <c r="C47">
-        <v>1.574747933714699</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="D47">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E47">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F47">
-        <v>0.3004364993777336</v>
+        <v>1.331664483728332</v>
       </c>
       <c r="G47">
-        <v>0.3471137289117474</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H47">
-        <v>0.08380942946844891</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I47">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J47">
-        <v>0.149914929340299</v>
+        <v>0.6644877949137575</v>
       </c>
       <c r="K47">
-        <v>0.19855192270278</v>
+        <v>0.8800679817096193</v>
       </c>
       <c r="L47">
-        <v>0.6509363891502964</v>
+        <v>2.885231562720232</v>
       </c>
       <c r="M47">
-        <v>0.4096034740998407</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="N47">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O47">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P47">
-        <v>4.719124354228103</v>
+        <v>20.91719984036241</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.3200373343027096</v>
+        <v>1.41854386015255</v>
       </c>
       <c r="C48">
-        <v>1.439382781819453</v>
+        <v>6.379966924821361</v>
       </c>
       <c r="D48">
-        <v>0.0011144038034351</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E48">
-        <v>0.1059996506900548</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F48">
-        <v>0.4771638519528711</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G48">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H48">
-        <v>0.08660307711739718</v>
+        <v>0.3838622877635984</v>
       </c>
       <c r="I48">
-        <v>0.6418686956869507</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="J48">
-        <v>0.2398638869444784</v>
+        <v>1.063180471862012</v>
       </c>
       <c r="K48">
-        <v>0.3176830763244479</v>
+        <v>1.408108770735391</v>
       </c>
       <c r="L48">
-        <v>0.9402414509948727</v>
+        <v>4.167556701707001</v>
       </c>
       <c r="M48">
-        <v>0.5916494625886587</v>
+        <v>2.622446266609189</v>
       </c>
       <c r="N48">
-        <v>0.0107131622817529</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O48">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P48">
-        <v>5.76814364401223</v>
+        <v>25.56690696264881</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.2884349016051067</v>
+        <v>1.278468212519932</v>
       </c>
       <c r="C49">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D49">
-        <v>0.001442169627974835</v>
+        <v>0.006392319432104675</v>
       </c>
       <c r="E49">
-        <v>0.1371760185400709</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="F49">
-        <v>0.335781969892761</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G49">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H49">
-        <v>0.1285077918516216</v>
+        <v>0.5696021044234042</v>
       </c>
       <c r="I49">
-        <v>0.9524503226322494</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="J49">
-        <v>0.4154785184574</v>
+        <v>1.841580460189556</v>
       </c>
       <c r="K49">
-        <v>0.5502724714905616</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="L49">
-        <v>1.048730849186589</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M49">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N49">
-        <v>0.02410461513394402</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O49">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P49">
-        <v>6.327676549108308</v>
+        <v>28.04699875820979</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.047232222777196</v>
+        <v>0.2327182717282658</v>
       </c>
       <c r="C2">
-        <v>4.709975582430815</v>
+        <v>1.046661240540181</v>
       </c>
       <c r="D2">
-        <v>0.005811199483731523</v>
+        <v>0.001291377663051449</v>
       </c>
       <c r="E2">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="F2">
-        <v>2.114996532980292</v>
+        <v>0.4699992295511763</v>
       </c>
       <c r="G2">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H2">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I2">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J2">
-        <v>1.936507288034379</v>
+        <v>0.4303349528965287</v>
       </c>
       <c r="K2">
-        <v>2.564769546696605</v>
+        <v>0.5699487881548011</v>
       </c>
       <c r="L2">
-        <v>9.296857257654084</v>
+        <v>2.065968279478685</v>
       </c>
       <c r="M2">
-        <v>5.850072440897422</v>
+        <v>1.300016097977205</v>
       </c>
       <c r="N2">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O2">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P2">
-        <v>33.10182792272815</v>
+        <v>7.355961760606256</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.049455645755492</v>
+        <v>0.2332123657234425</v>
       </c>
       <c r="C3">
-        <v>4.719975530588841</v>
+        <v>1.048883451241966</v>
       </c>
       <c r="D3">
-        <v>0.006682879406291252</v>
+        <v>0.001485084312509167</v>
       </c>
       <c r="E3">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="F3">
-        <v>2.114996532980292</v>
+        <v>0.4699992295511763</v>
       </c>
       <c r="G3">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H3">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I3">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J3">
-        <v>1.993463384741273</v>
+        <v>0.4429918632758385</v>
       </c>
       <c r="K3">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="L3">
-        <v>7.854241476293966</v>
+        <v>1.745386994731993</v>
       </c>
       <c r="M3">
-        <v>4.942302579378856</v>
+        <v>1.098289462084191</v>
       </c>
       <c r="N3">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O3">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P3">
-        <v>31.0839982386278</v>
+        <v>6.907555164139511</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.071689875538447</v>
+        <v>0.2381533056752104</v>
       </c>
       <c r="C4">
-        <v>4.819975012169113</v>
+        <v>1.071105558259803</v>
       </c>
       <c r="D4">
-        <v>0.004067839638612067</v>
+        <v>0.0009039643641360146</v>
       </c>
       <c r="E4">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="F4">
-        <v>1.409997688653529</v>
+        <v>0.3133328197007842</v>
       </c>
       <c r="G4">
-        <v>1.629061570345751</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H4">
-        <v>0.2352704344357538</v>
+        <v>0.05228231876350084</v>
       </c>
       <c r="I4">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="J4">
-        <v>1.442887783241302</v>
+        <v>0.3206417296091781</v>
       </c>
       <c r="K4">
-        <v>1.911004760283745</v>
+        <v>0.4246677245074988</v>
       </c>
       <c r="L4">
-        <v>5.289591198320427</v>
+        <v>1.175464710737872</v>
       </c>
       <c r="M4">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="N4">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O4">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P4">
-        <v>23.39511229982347</v>
+        <v>5.198913844405214</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.242893444867204</v>
+        <v>0.2761985433038228</v>
       </c>
       <c r="C5">
-        <v>5.58997102033721</v>
+        <v>1.242215782297158</v>
       </c>
       <c r="D5">
-        <v>0.009007359199783861</v>
+        <v>0.002001635377729747</v>
       </c>
       <c r="E5">
-        <v>0.8567602926999018</v>
+        <v>0.1903911761555339</v>
       </c>
       <c r="F5">
-        <v>2.819995377307058</v>
+        <v>0.6266656394015684</v>
       </c>
       <c r="G5">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H5">
-        <v>0.2228877799917668</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I5">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J5">
-        <v>2.088390212586095</v>
+        <v>0.4640867139080212</v>
       </c>
       <c r="K5">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="L5">
-        <v>5.930753767813813</v>
+        <v>1.317945281736403</v>
       </c>
       <c r="M5">
-        <v>3.731942764020769</v>
+        <v>0.829320614226838</v>
       </c>
       <c r="N5">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O5">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P5">
-        <v>30.47465829004222</v>
+        <v>6.772146286676048</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.305149288259477</v>
+        <v>0.2900331751687731</v>
       </c>
       <c r="C6">
-        <v>5.869969568761972</v>
+        <v>1.304437681947104</v>
       </c>
       <c r="D6">
-        <v>0.005520639509544946</v>
+        <v>0.001226808779898877</v>
       </c>
       <c r="E6">
-        <v>0.5251111471386498</v>
+        <v>0.116691366030811</v>
       </c>
       <c r="F6">
-        <v>2.663328967456664</v>
+        <v>0.5918508816570368</v>
       </c>
       <c r="G6">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="H6">
-        <v>0.2352704344357538</v>
+        <v>0.05228231876350084</v>
       </c>
       <c r="I6">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="J6">
-        <v>2.183317040430917</v>
+        <v>0.485181564540204</v>
       </c>
       <c r="K6">
-        <v>2.891651939903035</v>
+        <v>0.642589319978452</v>
       </c>
       <c r="L6">
-        <v>5.44988184069377</v>
+        <v>1.211084853487505</v>
       </c>
       <c r="M6">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="N6">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O6">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P6">
-        <v>29.56303195743689</v>
+        <v>6.5695626572082</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.287361904433114</v>
+        <v>0.2860804232073586</v>
       </c>
       <c r="C7">
-        <v>5.789969983497756</v>
+        <v>1.286659996332834</v>
       </c>
       <c r="D7">
-        <v>0.01133183899327647</v>
+        <v>0.002518186442950327</v>
       </c>
       <c r="E7">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="F7">
-        <v>2.036663328055098</v>
+        <v>0.4525918506789105</v>
       </c>
       <c r="G7">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="H7">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I7">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J7">
-        <v>2.088390212586095</v>
+        <v>0.4640867139080212</v>
       </c>
       <c r="K7">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="L7">
-        <v>5.289591198320427</v>
+        <v>1.175464710737872</v>
       </c>
       <c r="M7">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="N7">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O7">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P7">
-        <v>28.71209760516395</v>
+        <v>6.380466134480877</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.505257356306076</v>
+        <v>0.3345016347346837</v>
       </c>
       <c r="C8">
-        <v>6.769964902984418</v>
+        <v>1.504436645107648</v>
       </c>
       <c r="D8">
-        <v>0.01278463886420935</v>
+        <v>0.002841030858713189</v>
       </c>
       <c r="E8">
-        <v>1.216046867057926</v>
+        <v>0.2702326371239835</v>
       </c>
       <c r="F8">
-        <v>2.819995377307058</v>
+        <v>0.6266656394015684</v>
       </c>
       <c r="G8">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H8">
-        <v>0.309566361099676</v>
+        <v>0.06879252468881694</v>
       </c>
       <c r="I8">
-        <v>2.294386793649954</v>
+        <v>0.509863731922212</v>
       </c>
       <c r="J8">
-        <v>1.556799976655089</v>
+        <v>0.3459555503677976</v>
       </c>
       <c r="K8">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="L8">
-        <v>4.007266059333657</v>
+        <v>0.890503568740813</v>
       </c>
       <c r="M8">
-        <v>2.521582948662682</v>
+        <v>0.5603517663694848</v>
       </c>
       <c r="N8">
-        <v>0.08309939391521838</v>
+        <v>0.01846653198115965</v>
       </c>
       <c r="O8">
-        <v>0.3453659813012649</v>
+        <v>0.07674799584472555</v>
       </c>
       <c r="P8">
-        <v>28.76211335497698</v>
+        <v>6.391580745550442</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.743163614983699</v>
+        <v>0.3873696922185995</v>
       </c>
       <c r="C9">
-        <v>7.839959355893333</v>
+        <v>1.742213190198518</v>
       </c>
       <c r="D9">
-        <v>0.003486719690238914</v>
+        <v>0.0007748265978308698</v>
       </c>
       <c r="E9">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="F9">
-        <v>1.723330508354313</v>
+        <v>0.3829623351898473</v>
       </c>
       <c r="G9">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="H9">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I9">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J9">
-        <v>1.158107299706834</v>
+        <v>0.2573571777126299</v>
       </c>
       <c r="K9">
-        <v>1.533832768122479</v>
+        <v>0.3408517262494398</v>
       </c>
       <c r="L9">
-        <v>3.366103489840271</v>
+        <v>0.7480229977422828</v>
       </c>
       <c r="M9">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="P9">
-        <v>24.10031660785356</v>
+        <v>5.355625912856346</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.665343810743354</v>
+        <v>0.3700764023874122</v>
       </c>
       <c r="C10">
-        <v>7.489961170362379</v>
+        <v>1.664435815636084</v>
       </c>
       <c r="D10">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E10">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F10">
-        <v>1.644997303429117</v>
+        <v>0.3655549563175815</v>
       </c>
       <c r="G10">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="H10">
-        <v>0.4457755599835335</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I10">
-        <v>3.303916982855934</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J10">
-        <v>0.9302829128792606</v>
+        <v>0.2067295361953913</v>
       </c>
       <c r="K10">
-        <v>1.232095174393467</v>
+        <v>0.2737989276429926</v>
       </c>
       <c r="L10">
-        <v>1.763197066106808</v>
+        <v>0.3918215702459575</v>
       </c>
       <c r="M10">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="N10">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O10">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P10">
-        <v>21.74234357094882</v>
+        <v>4.831631904655294</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.202871831257884</v>
+        <v>0.2673048513906406</v>
       </c>
       <c r="C11">
-        <v>5.409971953492723</v>
+        <v>1.202215989665048</v>
       </c>
       <c r="D11">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E11">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F11">
-        <v>1.331664483728332</v>
+        <v>0.2959254408285184</v>
       </c>
       <c r="G11">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="H11">
-        <v>0.3714796333196111</v>
+        <v>0.0825510296265803</v>
       </c>
       <c r="I11">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="J11">
-        <v>0.4176780425172189</v>
+        <v>0.09281734278160421</v>
       </c>
       <c r="K11">
-        <v>0.5531855885031892</v>
+        <v>0.1229301307784865</v>
       </c>
       <c r="L11">
-        <v>2.724940920346885</v>
+        <v>0.6055424267437527</v>
       </c>
       <c r="M11">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="N11">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O11">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P11">
-        <v>18.24706843234979</v>
+        <v>4.054904096077729</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.080583567451629</v>
+        <v>0.2401296816559175</v>
       </c>
       <c r="C12">
-        <v>4.859974804801222</v>
+        <v>1.079994401066938</v>
       </c>
       <c r="D12">
-        <v>0.005230079535358371</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E12">
-        <v>0.4974737183418786</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F12">
-        <v>1.174998073877941</v>
+        <v>0.2611106830839869</v>
       </c>
       <c r="G12">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H12">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I12">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J12">
-        <v>0.3986926769482546</v>
+        <v>0.08859837265516766</v>
       </c>
       <c r="K12">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="L12">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M12">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N12">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O12">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P12">
-        <v>15.02225128173845</v>
+        <v>3.338278062608545</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.7870917343166192</v>
+        <v>0.1749092742925819</v>
       </c>
       <c r="C13">
-        <v>3.539981647941632</v>
+        <v>0.786662588431474</v>
       </c>
       <c r="D13">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E13">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F13">
-        <v>1.018331664027549</v>
+        <v>0.2262959253394553</v>
       </c>
       <c r="G13">
-        <v>1.176544467471932</v>
+        <v>0.2614543261048737</v>
       </c>
       <c r="H13">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I13">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J13">
-        <v>0.3037658491034321</v>
+        <v>0.0675035220229849</v>
       </c>
       <c r="K13">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="L13">
-        <v>1.282325138986771</v>
+        <v>0.2849611419970598</v>
       </c>
       <c r="M13">
-        <v>0.8069065435720583</v>
+        <v>0.1793125652382351</v>
       </c>
       <c r="N13">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P13">
-        <v>12.19829641239876</v>
+        <v>2.710732536088614</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.404662982049787</v>
+        <v>0.08992510712217495</v>
       </c>
       <c r="C14">
-        <v>1.819990564760952</v>
+        <v>0.4044423477246562</v>
       </c>
       <c r="D14">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E14">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F14">
-        <v>0.3916660246259802</v>
+        <v>0.08703689436132896</v>
       </c>
       <c r="G14">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="H14">
-        <v>0.2105051255477798</v>
+        <v>0.04677891678839551</v>
       </c>
       <c r="I14">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="J14">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K14">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L14">
-        <v>0.4808719271200388</v>
+        <v>0.1068604282488975</v>
       </c>
       <c r="M14">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="P14">
-        <v>6.208404658598349</v>
+        <v>1.379645479688522</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.329066600787739</v>
+        <v>0.07312591128616421</v>
       </c>
       <c r="C15">
-        <v>1.479992327388027</v>
+        <v>0.3288871838640059</v>
       </c>
       <c r="D15">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E15">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F15">
-        <v>0.6266656394015684</v>
+        <v>0.1392590309781263</v>
       </c>
       <c r="G15">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="H15">
-        <v>0.07429592666392228</v>
+        <v>0.01651020592531606</v>
       </c>
       <c r="I15">
-        <v>0.5506528304759889</v>
+        <v>0.1223672956613309</v>
       </c>
       <c r="J15">
-        <v>0.569560967068935</v>
+        <v>0.1265691037930967</v>
       </c>
       <c r="K15">
-        <v>0.7543439843225307</v>
+        <v>0.1676319965161179</v>
       </c>
       <c r="L15">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M15">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P15">
-        <v>6.609871363702795</v>
+        <v>1.468860303045065</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2690341803737593</v>
+        <v>0.05978537341639101</v>
       </c>
       <c r="C16">
-        <v>1.209993727121292</v>
+        <v>0.2688874949158429</v>
       </c>
       <c r="D16">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E16">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="J16">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K16">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L16">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P16">
-        <v>3.526057787323033</v>
+        <v>0.7835683971828967</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1467459165675052</v>
+        <v>0.03261020368166778</v>
       </c>
       <c r="C17">
-        <v>0.6599965784297956</v>
+        <v>0.1466659063177324</v>
       </c>
       <c r="D17">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E17">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F17">
-        <v>0.2349996147755881</v>
+        <v>0.05222213661679737</v>
       </c>
       <c r="G17">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="J17">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K17">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L17">
-        <v>0.3205812847466927</v>
+        <v>0.07124028549926495</v>
       </c>
       <c r="M17">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="P17">
-        <v>2.260659766325286</v>
+        <v>0.5023688369611744</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1156179948713677</v>
+        <v>0.02569288774919281</v>
       </c>
       <c r="C18">
-        <v>0.5199973042174146</v>
+        <v>0.1155549564927588</v>
       </c>
       <c r="D18">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E18">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F18">
-        <v>0.07833320492519605</v>
+        <v>0.01740737887226579</v>
       </c>
       <c r="G18">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="J18">
-        <v>0.09492682784482251</v>
+        <v>0.02109485063218278</v>
       </c>
       <c r="K18">
-        <v>0.1257239973870885</v>
+        <v>0.02793866608601966</v>
       </c>
       <c r="L18">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M18">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P18">
-        <v>2.097646579871026</v>
+        <v>0.4661436844157832</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1111711489147767</v>
+        <v>0.02470469975883923</v>
       </c>
       <c r="C19">
-        <v>0.4999974079013602</v>
+        <v>0.1111105350891912</v>
       </c>
       <c r="D19">
-        <v>0.001452799870932881</v>
+        <v>0.0003228444157628624</v>
       </c>
       <c r="E19">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="F19">
-        <v>0.1566664098503921</v>
+        <v>0.03481475774453158</v>
       </c>
       <c r="G19">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="H19">
-        <v>0.04953061777594818</v>
+        <v>0.0110068039502107</v>
       </c>
       <c r="I19">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="J19">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K19">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L19">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M19">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P19">
-        <v>3.079292078266787</v>
+        <v>0.6842871285037302</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.204554914003189</v>
+        <v>0.04545664755626425</v>
       </c>
       <c r="C20">
-        <v>0.9199952305385036</v>
+        <v>0.2044433845641118</v>
       </c>
       <c r="D20">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E20">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="J20">
-        <v>0.2088390212586095</v>
+        <v>0.0464086713908021</v>
       </c>
       <c r="K20">
-        <v>0.2765927942515946</v>
+        <v>0.06146506538924325</v>
       </c>
       <c r="L20">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M20">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P20">
-        <v>4.016223580472493</v>
+        <v>0.8924941289938876</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.6892611232716153</v>
+        <v>0.1531691385048034</v>
       </c>
       <c r="C21">
-        <v>3.099983928988435</v>
+        <v>0.6888853175529852</v>
       </c>
       <c r="D21">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E21">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F21">
-        <v>1.723330508354313</v>
+        <v>0.3829623351898473</v>
       </c>
       <c r="G21">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="H21">
-        <v>0.07429592666392228</v>
+        <v>0.01651020592531606</v>
       </c>
       <c r="I21">
-        <v>0.5506528304759889</v>
+        <v>0.1223672956613309</v>
       </c>
       <c r="J21">
-        <v>0.7024585260516865</v>
+        <v>0.1561018946781526</v>
       </c>
       <c r="K21">
-        <v>0.9303575806644546</v>
+        <v>0.2067461290365454</v>
       </c>
       <c r="L21">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M21">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N21">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O21">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P21">
-        <v>12.31800396494006</v>
+        <v>2.737334214431123</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.180637601474928</v>
+        <v>0.2623639114388731</v>
       </c>
       <c r="C22">
-        <v>5.309972471912445</v>
+        <v>1.17999388264721</v>
       </c>
       <c r="D22">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E22">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F22">
-        <v>2.271662942830686</v>
+        <v>0.504813987295708</v>
       </c>
       <c r="G22">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="H22">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I22">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J22">
-        <v>1.253034127551657</v>
+        <v>0.2784520283448127</v>
       </c>
       <c r="K22">
-        <v>1.659556765509567</v>
+        <v>0.3687903923354595</v>
       </c>
       <c r="L22">
-        <v>4.969009913573735</v>
+        <v>1.104224425238608</v>
       </c>
       <c r="M22">
-        <v>3.126762856341726</v>
+        <v>0.6948361902981612</v>
       </c>
       <c r="N22">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O22">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P22">
-        <v>26.18576359814189</v>
+        <v>5.819058577364865</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.525268163110736</v>
+        <v>0.3389484806912747</v>
       </c>
       <c r="C23">
-        <v>6.859964436406665</v>
+        <v>1.524436541423703</v>
       </c>
       <c r="D23">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E23">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F23">
-        <v>1.096664868952744</v>
+        <v>0.2437033042117211</v>
       </c>
       <c r="G23">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H23">
-        <v>0.3962449422075854</v>
+        <v>0.08805443160168563</v>
       </c>
       <c r="I23">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="J23">
-        <v>0.7404292571896155</v>
+        <v>0.1645398349310257</v>
       </c>
       <c r="K23">
-        <v>0.9806471796192898</v>
+        <v>0.2179215954709533</v>
       </c>
       <c r="L23">
-        <v>2.564650277973541</v>
+        <v>0.5699222839941196</v>
       </c>
       <c r="M23">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="N23">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O23">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P23">
-        <v>20.18774784146908</v>
+        <v>4.48616618699313</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.478576280566529</v>
+        <v>0.328572506792562</v>
       </c>
       <c r="C24">
-        <v>6.649965525088093</v>
+        <v>1.477770116686243</v>
       </c>
       <c r="D24">
-        <v>0.004648959586985218</v>
+        <v>0.00103310213044116</v>
       </c>
       <c r="E24">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="F24">
-        <v>1.879996918204705</v>
+        <v>0.417777092934379</v>
       </c>
       <c r="G24">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H24">
-        <v>0.3467143244316371</v>
+        <v>0.07704762765147492</v>
       </c>
       <c r="I24">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="J24">
-        <v>1.025209740724083</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K24">
-        <v>1.357819171780555</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L24">
-        <v>4.648428628827042</v>
+        <v>1.032984139739342</v>
       </c>
       <c r="M24">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="N24">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O24">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P24">
-        <v>25.68401795103888</v>
+        <v>5.707559544675306</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.278468212519932</v>
+        <v>0.2841040472266514</v>
       </c>
       <c r="C25">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="D25">
-        <v>0.006392319432104675</v>
+        <v>0.001420515429356595</v>
       </c>
       <c r="E25">
-        <v>0.6080234335289629</v>
+        <v>0.1351163185619918</v>
       </c>
       <c r="F25">
-        <v>1.488330893578725</v>
+        <v>0.33074019857305</v>
       </c>
       <c r="G25">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H25">
-        <v>0.5696021044234042</v>
+        <v>0.1265782454274231</v>
       </c>
       <c r="I25">
-        <v>4.221671700315915</v>
+        <v>0.93814926673687</v>
       </c>
       <c r="J25">
-        <v>1.841580460189556</v>
+        <v>0.4092401022643459</v>
       </c>
       <c r="K25">
-        <v>2.439045549309516</v>
+        <v>0.5420101220687814</v>
       </c>
       <c r="L25">
-        <v>4.648428628827042</v>
+        <v>1.032984139739342</v>
       </c>
       <c r="M25">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="N25">
-        <v>0.1068420778909951</v>
+        <v>0.0237426839757767</v>
       </c>
       <c r="O25">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P25">
-        <v>28.04699875820979</v>
+        <v>6.232666390713287</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.078360144473334</v>
+        <v>0.2396355876607409</v>
       </c>
       <c r="C26">
-        <v>4.849974856643195</v>
+        <v>1.077772190365155</v>
       </c>
       <c r="D26">
-        <v>0.004939519561171795</v>
+        <v>0.001097671013593732</v>
       </c>
       <c r="E26">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="F26">
-        <v>1.879996918204705</v>
+        <v>0.417777092934379</v>
       </c>
       <c r="G26">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H26">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I26">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J26">
-        <v>2.069404847017131</v>
+        <v>0.4598677437815845</v>
       </c>
       <c r="K26">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="L26">
-        <v>11.06005432376089</v>
+        <v>2.457789849724644</v>
       </c>
       <c r="M26">
-        <v>6.959568938308999</v>
+        <v>1.546570875179779</v>
       </c>
       <c r="N26">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O26">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P26">
-        <v>35.86426599466697</v>
+        <v>7.969836887703776</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.018327724059354</v>
+        <v>0.2262950497909677</v>
       </c>
       <c r="C27">
-        <v>4.579976256376463</v>
+        <v>1.017772501416992</v>
       </c>
       <c r="D27">
-        <v>0.00755455932885098</v>
+        <v>0.001678790961966885</v>
       </c>
       <c r="E27">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="F27">
-        <v>1.879996918204705</v>
+        <v>0.417777092934379</v>
       </c>
       <c r="G27">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H27">
-        <v>0.2476530888797409</v>
+        <v>0.05503401975105354</v>
       </c>
       <c r="I27">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="J27">
-        <v>2.259258502706775</v>
+        <v>0.5020574450459501</v>
       </c>
       <c r="K27">
-        <v>2.992231137812705</v>
+        <v>0.6649402528472679</v>
       </c>
       <c r="L27">
-        <v>10.09831046952082</v>
+        <v>2.244068993226848</v>
       </c>
       <c r="M27">
-        <v>6.354389030629958</v>
+        <v>1.412086451251102</v>
       </c>
       <c r="N27">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O27">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P27">
-        <v>34.286281043583</v>
+        <v>7.619173565240668</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.007210609167876</v>
+        <v>0.2238245798150836</v>
       </c>
       <c r="C28">
-        <v>4.529976515586326</v>
+        <v>1.006661447908072</v>
       </c>
       <c r="D28">
-        <v>0.003196159716052338</v>
+        <v>0.0007102577146782973</v>
       </c>
       <c r="E28">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="F28">
-        <v>1.096664868952744</v>
+        <v>0.2437033042117211</v>
       </c>
       <c r="G28">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H28">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I28">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J28">
-        <v>1.215063396413728</v>
+        <v>0.2700140880919396</v>
       </c>
       <c r="K28">
-        <v>1.609267166554732</v>
+        <v>0.3576149259010517</v>
       </c>
       <c r="L28">
-        <v>5.44988184069377</v>
+        <v>1.211084853487505</v>
       </c>
       <c r="M28">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="N28">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O28">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P28">
-        <v>22.59509601858722</v>
+        <v>5.021132448574939</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.245116867845498</v>
+        <v>0.2766926372989996</v>
       </c>
       <c r="C29">
-        <v>5.599970968495233</v>
+        <v>1.244437992998941</v>
       </c>
       <c r="D29">
-        <v>0.009007359199783861</v>
+        <v>0.002001635377729747</v>
       </c>
       <c r="E29">
-        <v>0.8567602926999018</v>
+        <v>0.1903911761555339</v>
       </c>
       <c r="F29">
-        <v>3.524994221633821</v>
+        <v>0.7833320492519603</v>
       </c>
       <c r="G29">
-        <v>4.07265392586438</v>
+        <v>0.9050342057476399</v>
       </c>
       <c r="H29">
-        <v>0.3714796333196111</v>
+        <v>0.0825510296265803</v>
       </c>
       <c r="I29">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="J29">
-        <v>1.993463384741273</v>
+        <v>0.4429918632758385</v>
       </c>
       <c r="K29">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="L29">
-        <v>8.174822761040659</v>
+        <v>1.816627280231258</v>
       </c>
       <c r="M29">
-        <v>5.144029215271871</v>
+        <v>1.143117603393749</v>
       </c>
       <c r="N29">
-        <v>0.09497073590310677</v>
+        <v>0.02110460797846817</v>
       </c>
       <c r="O29">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="P29">
-        <v>36.87544144215396</v>
+        <v>8.194542542700878</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.109488066169471</v>
+        <v>0.2465529035932157</v>
       </c>
       <c r="C30">
-        <v>4.989974130855575</v>
+        <v>1.108883140190128</v>
       </c>
       <c r="D30">
-        <v>0.004358399612798641</v>
+        <v>0.0009685332472885872</v>
       </c>
       <c r="E30">
-        <v>0.4145614319515656</v>
+        <v>0.09212476265590346</v>
       </c>
       <c r="F30">
-        <v>2.819995377307058</v>
+        <v>0.6266656394015684</v>
       </c>
       <c r="G30">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H30">
-        <v>0.1981224711037927</v>
+        <v>0.04402721580084282</v>
       </c>
       <c r="I30">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="J30">
-        <v>2.221287771568848</v>
+        <v>0.493619504793077</v>
       </c>
       <c r="K30">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="L30">
-        <v>4.007266059333657</v>
+        <v>0.890503568740813</v>
       </c>
       <c r="M30">
-        <v>2.521582948662682</v>
+        <v>0.5603517663694848</v>
       </c>
       <c r="N30">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O30">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P30">
-        <v>26.19994624131736</v>
+        <v>5.822210275848301</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.325160095064138</v>
+        <v>0.294480021125364</v>
       </c>
       <c r="C31">
-        <v>5.959969102184219</v>
+        <v>1.324437578263159</v>
       </c>
       <c r="D31">
-        <v>0.00755455932885098</v>
+        <v>0.001678790961966885</v>
       </c>
       <c r="E31">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="F31">
-        <v>2.741662172381861</v>
+        <v>0.6092582605293023</v>
       </c>
       <c r="G31">
-        <v>3.167619720116739</v>
+        <v>0.7039154933592756</v>
       </c>
       <c r="H31">
-        <v>0.2476530888797409</v>
+        <v>0.05503401975105354</v>
       </c>
       <c r="I31">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="J31">
-        <v>1.89853655689645</v>
+        <v>0.4218970126436555</v>
       </c>
       <c r="K31">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="L31">
-        <v>5.610172483067117</v>
+        <v>1.246704996237137</v>
       </c>
       <c r="M31">
-        <v>3.530216128127754</v>
+        <v>0.7844924729172789</v>
       </c>
       <c r="N31">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O31">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P31">
-        <v>29.86315313400786</v>
+        <v>6.636256252001745</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.538608700980509</v>
+        <v>0.341913044662335</v>
       </c>
       <c r="C32">
-        <v>6.919964125354826</v>
+        <v>1.537769805634406</v>
       </c>
       <c r="D32">
-        <v>0.01075071904490332</v>
+        <v>0.002389048676645182</v>
       </c>
       <c r="E32">
-        <v>1.022584865480528</v>
+        <v>0.2272410812178953</v>
       </c>
       <c r="F32">
-        <v>2.584995762531469</v>
+        <v>0.574443502784771</v>
       </c>
       <c r="G32">
-        <v>2.986612878967212</v>
+        <v>0.6636917508816028</v>
       </c>
       <c r="H32">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I32">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J32">
-        <v>1.556799976655089</v>
+        <v>0.3459555503677976</v>
       </c>
       <c r="K32">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="L32">
-        <v>7.213078906800581</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M32">
-        <v>4.538849307592827</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N32">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O32">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P32">
-        <v>33.23996052569904</v>
+        <v>7.386657894599788</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.769844690723245</v>
+        <v>0.393298820160721</v>
       </c>
       <c r="C33">
-        <v>7.959958733789653</v>
+        <v>1.768879718619925</v>
       </c>
       <c r="D33">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E33">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F33">
-        <v>1.253331278803137</v>
+        <v>0.2785180619562526</v>
       </c>
       <c r="G33">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="H33">
-        <v>0.2476530888797409</v>
+        <v>0.05503401975105354</v>
       </c>
       <c r="I33">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="J33">
-        <v>1.006224375155119</v>
+        <v>0.2236054167011375</v>
       </c>
       <c r="K33">
-        <v>1.332674372303138</v>
+        <v>0.2961498605118084</v>
       </c>
       <c r="L33">
-        <v>3.045522205093577</v>
+        <v>0.6767827122430176</v>
       </c>
       <c r="M33">
-        <v>1.916403040983638</v>
+        <v>0.4258673424408085</v>
       </c>
       <c r="P33">
-        <v>22.06652784878605</v>
+        <v>4.903672855285792</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.83654738007211</v>
+        <v>0.4081216400160248</v>
       </c>
       <c r="C34">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="D34">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E34">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F34">
-        <v>1.096664868952744</v>
+        <v>0.2437033042117211</v>
       </c>
       <c r="G34">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H34">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I34">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J34">
-        <v>1.025209740724083</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K34">
-        <v>1.357819171780555</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L34">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M34">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="N34">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O34">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P34">
-        <v>20.52306101194127</v>
+        <v>4.560680224875839</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.285138481454817</v>
+        <v>0.2855863292121816</v>
       </c>
       <c r="C35">
-        <v>5.779970035339729</v>
+        <v>1.284437785631051</v>
       </c>
       <c r="D35">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E35">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F35">
-        <v>1.018331664027549</v>
+        <v>0.2262959253394553</v>
       </c>
       <c r="G35">
-        <v>1.176544467471932</v>
+        <v>0.2614543261048737</v>
       </c>
       <c r="H35">
-        <v>0.3343316699876502</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I35">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J35">
-        <v>0.5315902359310061</v>
+        <v>0.1181311635402236</v>
       </c>
       <c r="K35">
-        <v>0.7040543853676954</v>
+        <v>0.1564565300817101</v>
       </c>
       <c r="L35">
-        <v>3.366103489840271</v>
+        <v>0.7480229977422828</v>
       </c>
       <c r="M35">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="N35">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O35">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P35">
-        <v>18.9983344883854</v>
+        <v>4.22185210853009</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.222882638062543</v>
+        <v>0.2717516973472318</v>
       </c>
       <c r="C36">
-        <v>5.499971486914966</v>
+        <v>1.222215885981103</v>
       </c>
       <c r="D36">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E36">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F36">
-        <v>0.7049988443267644</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G36">
-        <v>0.8145307851728757</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H36">
-        <v>0.4086275966515725</v>
+        <v>0.09080613258923831</v>
       </c>
       <c r="I36">
-        <v>3.02859056761794</v>
+        <v>0.67302012613732</v>
       </c>
       <c r="J36">
-        <v>0.4556487736551481</v>
+        <v>0.1012552830344774</v>
       </c>
       <c r="K36">
-        <v>0.6034751874580245</v>
+        <v>0.1341055972128943</v>
       </c>
       <c r="L36">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M36">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N36">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O36">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P36">
-        <v>15.37909813399754</v>
+        <v>3.417577363110564</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8626881155786668</v>
+        <v>0.1917084701285927</v>
       </c>
       <c r="C37">
-        <v>3.879979885314557</v>
+        <v>0.8622177522921242</v>
       </c>
       <c r="D37">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E37">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F37">
-        <v>0.8616652541771566</v>
+        <v>0.1914811675949237</v>
       </c>
       <c r="G37">
-        <v>0.9955376263224038</v>
+        <v>0.2212305836272009</v>
       </c>
       <c r="H37">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I37">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J37">
-        <v>0.6075316982068641</v>
+        <v>0.1350070440459698</v>
       </c>
       <c r="K37">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="L37">
-        <v>1.602906423733463</v>
+        <v>0.3562014274963251</v>
       </c>
       <c r="M37">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="N37">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O37">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P37">
-        <v>13.30164545081039</v>
+        <v>2.955921211291198</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.4446845956591068</v>
+        <v>0.09881879903535694</v>
       </c>
       <c r="C38">
-        <v>1.999989631605441</v>
+        <v>0.4444421403567649</v>
       </c>
       <c r="D38">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E38">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F38">
-        <v>0.3916660246259802</v>
+        <v>0.08703689436132896</v>
       </c>
       <c r="G38">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="H38">
-        <v>0.2105051255477798</v>
+        <v>0.04677891678839551</v>
       </c>
       <c r="I38">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="J38">
-        <v>0.265795117965503</v>
+        <v>0.05906558177011179</v>
       </c>
       <c r="K38">
-        <v>0.3520271926838477</v>
+        <v>0.07822826504085505</v>
       </c>
       <c r="L38">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M38">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P38">
-        <v>7.038993589784631</v>
+        <v>1.564220797729918</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3846521752451272</v>
+        <v>0.08547826116558375</v>
       </c>
       <c r="C39">
-        <v>1.729991031338707</v>
+        <v>0.3844424514086016</v>
       </c>
       <c r="D39">
-        <v>0.003196159716052338</v>
+        <v>0.0007102577146782973</v>
       </c>
       <c r="E39">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="F39">
-        <v>0.7049988443267644</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G39">
-        <v>0.8145307851728757</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H39">
-        <v>0.04953061777594818</v>
+        <v>0.0110068039502107</v>
       </c>
       <c r="I39">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="J39">
-        <v>0.4176780425172189</v>
+        <v>0.09281734278160421</v>
       </c>
       <c r="K39">
-        <v>0.5531855885031892</v>
+        <v>0.1229301307784865</v>
       </c>
       <c r="L39">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M39">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P39">
-        <v>6.373492689623771</v>
+        <v>1.416331708805282</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.295715256113306</v>
+        <v>0.06571450135851244</v>
       </c>
       <c r="C40">
-        <v>1.329993105017618</v>
+        <v>0.2955540233372486</v>
       </c>
       <c r="D40">
-        <v>0.003196159716052338</v>
+        <v>0.0007102577146782973</v>
       </c>
       <c r="E40">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="J40">
-        <v>0.3227512146723966</v>
+        <v>0.07172249214942147</v>
       </c>
       <c r="K40">
-        <v>0.4274615911161008</v>
+        <v>0.09499146469246685</v>
       </c>
       <c r="L40">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M40">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="P40">
-        <v>4.511206765638931</v>
+        <v>1.002490392364207</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1823206842202338</v>
+        <v>0.0405157076044964</v>
       </c>
       <c r="C41">
-        <v>0.8199957489582312</v>
+        <v>0.1822212775462736</v>
       </c>
       <c r="D41">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E41">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F41">
-        <v>0.2349996147755881</v>
+        <v>0.05222213661679737</v>
       </c>
       <c r="G41">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="J41">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K41">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L41">
-        <v>0.4808719271200388</v>
+        <v>0.1068604282488975</v>
       </c>
       <c r="M41">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="P41">
-        <v>2.717387664826303</v>
+        <v>0.6038639255169562</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1556396084806873</v>
+        <v>0.03458657966237495</v>
       </c>
       <c r="C42">
-        <v>0.6999963710619042</v>
+        <v>0.1555547491248676</v>
       </c>
       <c r="D42">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E42">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F42">
-        <v>0.1566664098503921</v>
+        <v>0.03481475774453158</v>
       </c>
       <c r="G42">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="J42">
-        <v>0.09492682784482251</v>
+        <v>0.02109485063218278</v>
       </c>
       <c r="K42">
-        <v>0.1257239973870885</v>
+        <v>0.02793866608601966</v>
       </c>
       <c r="L42">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M42">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P42">
-        <v>2.486503885824795</v>
+        <v>0.5525564190721763</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1133945718930721</v>
+        <v>0.02519879375401604</v>
       </c>
       <c r="C43">
-        <v>0.5099973560593879</v>
+        <v>0.1133327457909751</v>
       </c>
       <c r="D43">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E43">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F43">
-        <v>0.1566664098503921</v>
+        <v>0.03481475774453158</v>
       </c>
       <c r="G43">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="H43">
-        <v>0.02476530888797409</v>
+        <v>0.005503401975105352</v>
       </c>
       <c r="I43">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="J43">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K43">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L43">
-        <v>0.9617438542400777</v>
+        <v>0.213720856497795</v>
       </c>
       <c r="M43">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="P43">
-        <v>3.217260644981784</v>
+        <v>0.7149468099959522</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2023314910248935</v>
+        <v>0.04496255356108748</v>
       </c>
       <c r="C44">
-        <v>0.9099952823804761</v>
+        <v>0.2022211738623281</v>
       </c>
       <c r="D44">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E44">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="J44">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K44">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L44">
-        <v>1.763197066106808</v>
+        <v>0.3918215702459575</v>
       </c>
       <c r="M44">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="P44">
-        <v>4.57043829502226</v>
+        <v>1.015652954449392</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.6937079692282063</v>
+        <v>0.154157326495157</v>
       </c>
       <c r="C45">
-        <v>3.119983825304488</v>
+        <v>0.6933297389565537</v>
       </c>
       <c r="D45">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E45">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F45">
-        <v>0.9399984591023526</v>
+        <v>0.2088885464671895</v>
       </c>
       <c r="G45">
-        <v>1.086041046897168</v>
+        <v>0.2413424548660373</v>
       </c>
       <c r="H45">
-        <v>0.06191327221993522</v>
+        <v>0.01375850493776338</v>
       </c>
       <c r="I45">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="J45">
-        <v>0.949268278448225</v>
+        <v>0.2109485063218278</v>
       </c>
       <c r="K45">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="L45">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M45">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N45">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O45">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P45">
-        <v>11.24603715025937</v>
+        <v>2.499119366724305</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.218435792105952</v>
+        <v>0.2707635093568782</v>
       </c>
       <c r="C46">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="D46">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E46">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F46">
-        <v>1.488330893578725</v>
+        <v>0.33074019857305</v>
       </c>
       <c r="G46">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H46">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I46">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J46">
-        <v>1.272019493120621</v>
+        <v>0.2826709984712493</v>
       </c>
       <c r="K46">
-        <v>1.684701564986985</v>
+        <v>0.3743781255526635</v>
       </c>
       <c r="L46">
-        <v>6.571916337307199</v>
+        <v>1.460425852734932</v>
       </c>
       <c r="M46">
-        <v>4.135396035806799</v>
+        <v>0.918976896845955</v>
       </c>
       <c r="N46">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O46">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P46">
-        <v>27.30500844316279</v>
+        <v>6.067779654036173</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.551949238850282</v>
+        <v>0.3448776086333959</v>
       </c>
       <c r="C47">
-        <v>6.979963814302995</v>
+        <v>1.55110306984511</v>
       </c>
       <c r="D47">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E47">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F47">
-        <v>1.331664483728332</v>
+        <v>0.2959254408285184</v>
       </c>
       <c r="G47">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="H47">
-        <v>0.3714796333196111</v>
+        <v>0.0825510296265803</v>
       </c>
       <c r="I47">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="J47">
-        <v>0.6644877949137575</v>
+        <v>0.1476639544252794</v>
       </c>
       <c r="K47">
-        <v>0.8800679817096193</v>
+        <v>0.1955706626021376</v>
       </c>
       <c r="L47">
-        <v>2.885231562720232</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M47">
-        <v>1.815539723037131</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N47">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O47">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P47">
-        <v>20.91719984036241</v>
+        <v>4.648266631191645</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.41854386015255</v>
+        <v>0.3152319689227889</v>
       </c>
       <c r="C48">
-        <v>6.379966924821361</v>
+        <v>1.41777042773808</v>
       </c>
       <c r="D48">
-        <v>0.004939519561171795</v>
+        <v>0.001097671013593732</v>
       </c>
       <c r="E48">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="F48">
-        <v>2.114996532980292</v>
+        <v>0.4699992295511763</v>
       </c>
       <c r="G48">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H48">
-        <v>0.3838622877635984</v>
+        <v>0.08530273061413299</v>
       </c>
       <c r="I48">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="J48">
-        <v>1.063180471862012</v>
+        <v>0.2362623270804471</v>
       </c>
       <c r="K48">
-        <v>1.408108770735391</v>
+        <v>0.3129130601634202</v>
       </c>
       <c r="L48">
-        <v>4.167556701707001</v>
+        <v>0.9261237114904448</v>
       </c>
       <c r="M48">
-        <v>2.622446266609189</v>
+        <v>0.5827658370242643</v>
       </c>
       <c r="N48">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O48">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P48">
-        <v>25.56690696264881</v>
+        <v>5.681534880588623</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.278468212519932</v>
+        <v>0.2841040472266514</v>
       </c>
       <c r="C49">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="D49">
-        <v>0.006392319432104675</v>
+        <v>0.001420515429356595</v>
       </c>
       <c r="E49">
-        <v>0.6080234335289629</v>
+        <v>0.1351163185619918</v>
       </c>
       <c r="F49">
-        <v>1.488330893578725</v>
+        <v>0.33074019857305</v>
       </c>
       <c r="G49">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H49">
-        <v>0.5696021044234042</v>
+        <v>0.1265782454274231</v>
       </c>
       <c r="I49">
-        <v>4.221671700315915</v>
+        <v>0.93814926673687</v>
       </c>
       <c r="J49">
-        <v>1.841580460189556</v>
+        <v>0.4092401022643459</v>
       </c>
       <c r="K49">
-        <v>2.439045549309516</v>
+        <v>0.5420101220687814</v>
       </c>
       <c r="L49">
-        <v>4.648428628827042</v>
+        <v>1.032984139739342</v>
       </c>
       <c r="M49">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="N49">
-        <v>0.1068420778909951</v>
+        <v>0.0237426839757767</v>
       </c>
       <c r="O49">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P49">
-        <v>28.04699875820979</v>
+        <v>6.232666390713287</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.2327182717282658</v>
+        <v>1.047232222777196</v>
       </c>
       <c r="C2">
-        <v>1.046661240540181</v>
+        <v>4.709975582430815</v>
       </c>
       <c r="D2">
-        <v>0.001291377663051449</v>
+        <v>0.005811199483731523</v>
       </c>
       <c r="E2">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="F2">
-        <v>0.4699992295511763</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G2">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H2">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I2">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J2">
-        <v>0.4303349528965287</v>
+        <v>1.936507288034379</v>
       </c>
       <c r="K2">
-        <v>0.5699487881548011</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="L2">
-        <v>2.065968279478685</v>
+        <v>9.296857257654084</v>
       </c>
       <c r="M2">
-        <v>1.300016097977205</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="N2">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O2">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P2">
-        <v>7.355961760606256</v>
+        <v>33.10182792272815</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.2332123657234425</v>
+        <v>1.049455645755492</v>
       </c>
       <c r="C3">
-        <v>1.048883451241966</v>
+        <v>4.719975530588841</v>
       </c>
       <c r="D3">
-        <v>0.001485084312509167</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E3">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F3">
-        <v>0.4699992295511763</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G3">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H3">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I3">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J3">
-        <v>0.4429918632758385</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K3">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L3">
-        <v>1.745386994731993</v>
+        <v>7.854241476293966</v>
       </c>
       <c r="M3">
-        <v>1.098289462084191</v>
+        <v>4.942302579378856</v>
       </c>
       <c r="N3">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O3">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P3">
-        <v>6.907555164139511</v>
+        <v>31.0839982386278</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.2381533056752104</v>
+        <v>1.071689875538447</v>
       </c>
       <c r="C4">
-        <v>1.071105558259803</v>
+        <v>4.819975012169113</v>
       </c>
       <c r="D4">
-        <v>0.0009039643641360146</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E4">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F4">
-        <v>0.3133328197007842</v>
+        <v>1.409997688653529</v>
       </c>
       <c r="G4">
-        <v>0.362013682299056</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="H4">
-        <v>0.05228231876350084</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I4">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J4">
-        <v>0.3206417296091781</v>
+        <v>1.442887783241302</v>
       </c>
       <c r="K4">
-        <v>0.4246677245074988</v>
+        <v>1.911004760283745</v>
       </c>
       <c r="L4">
-        <v>1.175464710737872</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M4">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N4">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O4">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P4">
-        <v>5.198913844405214</v>
+        <v>23.39511229982347</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.2761985433038228</v>
+        <v>1.242893444867204</v>
       </c>
       <c r="C5">
-        <v>1.242215782297158</v>
+        <v>5.58997102033721</v>
       </c>
       <c r="D5">
-        <v>0.002001635377729747</v>
+        <v>0.009007359199783861</v>
       </c>
       <c r="E5">
-        <v>0.1903911761555339</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="F5">
-        <v>0.6266656394015684</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G5">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H5">
-        <v>0.04953061777594818</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I5">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J5">
-        <v>0.4640867139080212</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K5">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L5">
-        <v>1.317945281736403</v>
+        <v>5.930753767813813</v>
       </c>
       <c r="M5">
-        <v>0.829320614226838</v>
+        <v>3.731942764020769</v>
       </c>
       <c r="N5">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O5">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P5">
-        <v>6.772146286676048</v>
+        <v>30.47465829004222</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.2900331751687731</v>
+        <v>1.305149288259477</v>
       </c>
       <c r="C6">
-        <v>1.304437681947104</v>
+        <v>5.869969568761972</v>
       </c>
       <c r="D6">
-        <v>0.001226808779898877</v>
+        <v>0.005520639509544946</v>
       </c>
       <c r="E6">
-        <v>0.116691366030811</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="F6">
-        <v>0.5918508816570368</v>
+        <v>2.663328967456664</v>
       </c>
       <c r="G6">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="H6">
-        <v>0.05228231876350084</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I6">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J6">
-        <v>0.485181564540204</v>
+        <v>2.183317040430917</v>
       </c>
       <c r="K6">
-        <v>0.642589319978452</v>
+        <v>2.891651939903035</v>
       </c>
       <c r="L6">
-        <v>1.211084853487505</v>
+        <v>5.44988184069377</v>
       </c>
       <c r="M6">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="N6">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O6">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P6">
-        <v>6.5695626572082</v>
+        <v>29.56303195743689</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.2860804232073586</v>
+        <v>1.287361904433114</v>
       </c>
       <c r="C7">
-        <v>1.286659996332834</v>
+        <v>5.789969983497756</v>
       </c>
       <c r="D7">
-        <v>0.002518186442950327</v>
+        <v>0.01133183899327647</v>
       </c>
       <c r="E7">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="F7">
-        <v>0.4525918506789105</v>
+        <v>2.036663328055098</v>
       </c>
       <c r="G7">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H7">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I7">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J7">
-        <v>0.4640867139080212</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K7">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L7">
-        <v>1.175464710737872</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M7">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N7">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O7">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P7">
-        <v>6.380466134480877</v>
+        <v>28.71209760516395</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.3345016347346837</v>
+        <v>1.505257356306076</v>
       </c>
       <c r="C8">
-        <v>1.504436645107648</v>
+        <v>6.769964902984418</v>
       </c>
       <c r="D8">
-        <v>0.002841030858713189</v>
+        <v>0.01278463886420935</v>
       </c>
       <c r="E8">
-        <v>0.2702326371239835</v>
+        <v>1.216046867057926</v>
       </c>
       <c r="F8">
-        <v>0.6266656394015684</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G8">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H8">
-        <v>0.06879252468881694</v>
+        <v>0.309566361099676</v>
       </c>
       <c r="I8">
-        <v>0.509863731922212</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="J8">
-        <v>0.3459555503677976</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K8">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L8">
-        <v>0.890503568740813</v>
+        <v>4.007266059333657</v>
       </c>
       <c r="M8">
-        <v>0.5603517663694848</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="N8">
-        <v>0.01846653198115965</v>
+        <v>0.08309939391521838</v>
       </c>
       <c r="O8">
-        <v>0.07674799584472555</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="P8">
-        <v>6.391580745550442</v>
+        <v>28.76211335497698</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.3873696922185995</v>
+        <v>1.743163614983699</v>
       </c>
       <c r="C9">
-        <v>1.742213190198518</v>
+        <v>7.839959355893333</v>
       </c>
       <c r="D9">
-        <v>0.0007748265978308698</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E9">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F9">
-        <v>0.3829623351898473</v>
+        <v>1.723330508354313</v>
       </c>
       <c r="G9">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="H9">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I9">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J9">
-        <v>0.2573571777126299</v>
+        <v>1.158107299706834</v>
       </c>
       <c r="K9">
-        <v>0.3408517262494398</v>
+        <v>1.533832768122479</v>
       </c>
       <c r="L9">
-        <v>0.7480229977422828</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M9">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="P9">
-        <v>5.355625912856346</v>
+        <v>24.10031660785356</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.3700764023874122</v>
+        <v>1.665343810743354</v>
       </c>
       <c r="C10">
-        <v>1.664435815636084</v>
+        <v>7.489961170362379</v>
       </c>
       <c r="D10">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E10">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F10">
-        <v>0.3655549563175815</v>
+        <v>1.644997303429117</v>
       </c>
       <c r="G10">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="H10">
-        <v>0.09906123555189636</v>
+        <v>0.4457755599835335</v>
       </c>
       <c r="I10">
-        <v>0.7342037739679854</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="J10">
-        <v>0.2067295361953913</v>
+        <v>0.9302829128792606</v>
       </c>
       <c r="K10">
-        <v>0.2737989276429926</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="L10">
-        <v>0.3918215702459575</v>
+        <v>1.763197066106808</v>
       </c>
       <c r="M10">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="N10">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O10">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P10">
-        <v>4.831631904655294</v>
+        <v>21.74234357094882</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.2673048513906406</v>
+        <v>1.202871831257884</v>
       </c>
       <c r="C11">
-        <v>1.202215989665048</v>
+        <v>5.409971953492723</v>
       </c>
       <c r="D11">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E11">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F11">
-        <v>0.2959254408285184</v>
+        <v>1.331664483728332</v>
       </c>
       <c r="G11">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H11">
-        <v>0.0825510296265803</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I11">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J11">
-        <v>0.09281734278160421</v>
+        <v>0.4176780425172189</v>
       </c>
       <c r="K11">
-        <v>0.1229301307784865</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="L11">
-        <v>0.6055424267437527</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M11">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N11">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O11">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P11">
-        <v>4.054904096077729</v>
+        <v>18.24706843234979</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.2401296816559175</v>
+        <v>1.080583567451629</v>
       </c>
       <c r="C12">
-        <v>1.079994401066938</v>
+        <v>4.859974804801222</v>
       </c>
       <c r="D12">
-        <v>0.001162239896746305</v>
+        <v>0.005230079535358371</v>
       </c>
       <c r="E12">
-        <v>0.1105497151870842</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="F12">
-        <v>0.2611106830839869</v>
+        <v>1.174998073877941</v>
       </c>
       <c r="G12">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H12">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I12">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J12">
-        <v>0.08859837265516766</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K12">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L12">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M12">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N12">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O12">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P12">
-        <v>3.338278062608545</v>
+        <v>15.02225128173845</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.1749092742925819</v>
+        <v>0.7870917343166192</v>
       </c>
       <c r="C13">
-        <v>0.786662588431474</v>
+        <v>3.539981647941632</v>
       </c>
       <c r="D13">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E13">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F13">
-        <v>0.2262959253394553</v>
+        <v>1.018331664027549</v>
       </c>
       <c r="G13">
-        <v>0.2614543261048737</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="H13">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I13">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J13">
-        <v>0.0675035220229849</v>
+        <v>0.3037658491034321</v>
       </c>
       <c r="K13">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="L13">
-        <v>0.2849611419970598</v>
+        <v>1.282325138986771</v>
       </c>
       <c r="M13">
-        <v>0.1793125652382351</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="N13">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P13">
-        <v>2.710732536088614</v>
+        <v>12.19829641239876</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.08992510712217495</v>
+        <v>0.404662982049787</v>
       </c>
       <c r="C14">
-        <v>0.4044423477246562</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="D14">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E14">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F14">
-        <v>0.08703689436132896</v>
+        <v>0.3916660246259802</v>
       </c>
       <c r="G14">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="H14">
-        <v>0.04677891678839551</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I14">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J14">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K14">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L14">
-        <v>0.1068604282488975</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M14">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="P14">
-        <v>1.379645479688522</v>
+        <v>6.208404658598349</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.07312591128616421</v>
+        <v>0.329066600787739</v>
       </c>
       <c r="C15">
-        <v>0.3288871838640059</v>
+        <v>1.479992327388027</v>
       </c>
       <c r="D15">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E15">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F15">
-        <v>0.1392590309781263</v>
+        <v>0.6266656394015684</v>
       </c>
       <c r="G15">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H15">
-        <v>0.01651020592531606</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I15">
-        <v>0.1223672956613309</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J15">
-        <v>0.1265691037930967</v>
+        <v>0.569560967068935</v>
       </c>
       <c r="K15">
-        <v>0.1676319965161179</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="L15">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M15">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P15">
-        <v>1.468860303045065</v>
+        <v>6.609871363702795</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.05978537341639101</v>
+        <v>0.2690341803737593</v>
       </c>
       <c r="C16">
-        <v>0.2688874949158429</v>
+        <v>1.209993727121292</v>
       </c>
       <c r="D16">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E16">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="J16">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K16">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L16">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P16">
-        <v>0.7835683971828967</v>
+        <v>3.526057787323033</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.03261020368166778</v>
+        <v>0.1467459165675052</v>
       </c>
       <c r="C17">
-        <v>0.1466659063177324</v>
+        <v>0.6599965784297956</v>
       </c>
       <c r="D17">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E17">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F17">
-        <v>0.05222213661679737</v>
+        <v>0.2349996147755881</v>
       </c>
       <c r="G17">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="J17">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K17">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L17">
-        <v>0.07124028549926495</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M17">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P17">
-        <v>0.5023688369611744</v>
+        <v>2.260659766325286</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.02569288774919281</v>
+        <v>0.1156179948713677</v>
       </c>
       <c r="C18">
-        <v>0.1155549564927588</v>
+        <v>0.5199973042174146</v>
       </c>
       <c r="D18">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E18">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F18">
-        <v>0.01740737887226579</v>
+        <v>0.07833320492519605</v>
       </c>
       <c r="G18">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="J18">
-        <v>0.02109485063218278</v>
+        <v>0.09492682784482251</v>
       </c>
       <c r="K18">
-        <v>0.02793866608601966</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="L18">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M18">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P18">
-        <v>0.4661436844157832</v>
+        <v>2.097646579871026</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.02470469975883923</v>
+        <v>0.1111711489147767</v>
       </c>
       <c r="C19">
-        <v>0.1111105350891912</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="D19">
-        <v>0.0003228444157628624</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E19">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F19">
-        <v>0.03481475774453158</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G19">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H19">
-        <v>0.0110068039502107</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I19">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J19">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K19">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L19">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M19">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P19">
-        <v>0.6842871285037302</v>
+        <v>3.079292078266787</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.04545664755626425</v>
+        <v>0.204554914003189</v>
       </c>
       <c r="C20">
-        <v>0.2044433845641118</v>
+        <v>0.9199952305385036</v>
       </c>
       <c r="D20">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E20">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="J20">
-        <v>0.0464086713908021</v>
+        <v>0.2088390212586095</v>
       </c>
       <c r="K20">
-        <v>0.06146506538924325</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="L20">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M20">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="P20">
-        <v>0.8924941289938876</v>
+        <v>4.016223580472493</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.1531691385048034</v>
+        <v>0.6892611232716153</v>
       </c>
       <c r="C21">
-        <v>0.6888853175529852</v>
+        <v>3.099983928988435</v>
       </c>
       <c r="D21">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E21">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F21">
-        <v>0.3829623351898473</v>
+        <v>1.723330508354313</v>
       </c>
       <c r="G21">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="H21">
-        <v>0.01651020592531606</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I21">
-        <v>0.1223672956613309</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J21">
-        <v>0.1561018946781526</v>
+        <v>0.7024585260516865</v>
       </c>
       <c r="K21">
-        <v>0.2067461290365454</v>
+        <v>0.9303575806644546</v>
       </c>
       <c r="L21">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M21">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N21">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O21">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P21">
-        <v>2.737334214431123</v>
+        <v>12.31800396494006</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.2623639114388731</v>
+        <v>1.180637601474928</v>
       </c>
       <c r="C22">
-        <v>1.17999388264721</v>
+        <v>5.309972471912445</v>
       </c>
       <c r="D22">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E22">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F22">
-        <v>0.504813987295708</v>
+        <v>2.271662942830686</v>
       </c>
       <c r="G22">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H22">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I22">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J22">
-        <v>0.2784520283448127</v>
+        <v>1.253034127551657</v>
       </c>
       <c r="K22">
-        <v>0.3687903923354595</v>
+        <v>1.659556765509567</v>
       </c>
       <c r="L22">
-        <v>1.104224425238608</v>
+        <v>4.969009913573735</v>
       </c>
       <c r="M22">
-        <v>0.6948361902981612</v>
+        <v>3.126762856341726</v>
       </c>
       <c r="N22">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O22">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P22">
-        <v>5.819058577364865</v>
+        <v>26.18576359814189</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.3389484806912747</v>
+        <v>1.525268163110736</v>
       </c>
       <c r="C23">
-        <v>1.524436541423703</v>
+        <v>6.859964436406665</v>
       </c>
       <c r="D23">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E23">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F23">
-        <v>0.2437033042117211</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G23">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H23">
-        <v>0.08805443160168563</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I23">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J23">
-        <v>0.1645398349310257</v>
+        <v>0.7404292571896155</v>
       </c>
       <c r="K23">
-        <v>0.2179215954709533</v>
+        <v>0.9806471796192898</v>
       </c>
       <c r="L23">
-        <v>0.5699222839941196</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M23">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N23">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O23">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P23">
-        <v>4.48616618699313</v>
+        <v>20.18774784146908</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.328572506792562</v>
+        <v>1.478576280566529</v>
       </c>
       <c r="C24">
-        <v>1.477770116686243</v>
+        <v>6.649965525088093</v>
       </c>
       <c r="D24">
-        <v>0.00103310213044116</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E24">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F24">
-        <v>0.417777092934379</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G24">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H24">
-        <v>0.07704762765147492</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I24">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J24">
-        <v>0.227824386827574</v>
+        <v>1.025209740724083</v>
       </c>
       <c r="K24">
-        <v>0.3017375937290123</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="L24">
-        <v>1.032984139739342</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M24">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N24">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O24">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P24">
-        <v>5.707559544675306</v>
+        <v>25.68401795103888</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.2841040472266514</v>
+        <v>1.278468212519932</v>
       </c>
       <c r="C25">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D25">
-        <v>0.001420515429356595</v>
+        <v>0.006392319432104675</v>
       </c>
       <c r="E25">
-        <v>0.1351163185619918</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="F25">
-        <v>0.33074019857305</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G25">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H25">
-        <v>0.1265782454274231</v>
+        <v>0.5696021044234042</v>
       </c>
       <c r="I25">
-        <v>0.93814926673687</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="J25">
-        <v>0.4092401022643459</v>
+        <v>1.841580460189556</v>
       </c>
       <c r="K25">
-        <v>0.5420101220687814</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="L25">
-        <v>1.032984139739342</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M25">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N25">
-        <v>0.0237426839757767</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O25">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P25">
-        <v>6.232666390713287</v>
+        <v>28.04699875820979</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.2396355876607409</v>
+        <v>1.078360144473334</v>
       </c>
       <c r="C26">
-        <v>1.077772190365155</v>
+        <v>4.849974856643195</v>
       </c>
       <c r="D26">
-        <v>0.001097671013593732</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E26">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F26">
-        <v>0.417777092934379</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G26">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H26">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I26">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J26">
-        <v>0.4598677437815845</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K26">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L26">
-        <v>2.457789849724644</v>
+        <v>11.06005432376089</v>
       </c>
       <c r="M26">
-        <v>1.546570875179779</v>
+        <v>6.959568938308999</v>
       </c>
       <c r="N26">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O26">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P26">
-        <v>7.969836887703776</v>
+        <v>35.86426599466697</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.2262950497909677</v>
+        <v>1.018327724059354</v>
       </c>
       <c r="C27">
-        <v>1.017772501416992</v>
+        <v>4.579976256376463</v>
       </c>
       <c r="D27">
-        <v>0.001678790961966885</v>
+        <v>0.00755455932885098</v>
       </c>
       <c r="E27">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="F27">
-        <v>0.417777092934379</v>
+        <v>1.879996918204705</v>
       </c>
       <c r="G27">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H27">
-        <v>0.05503401975105354</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I27">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J27">
-        <v>0.5020574450459501</v>
+        <v>2.259258502706775</v>
       </c>
       <c r="K27">
-        <v>0.6649402528472679</v>
+        <v>2.992231137812705</v>
       </c>
       <c r="L27">
-        <v>2.244068993226848</v>
+        <v>10.09831046952082</v>
       </c>
       <c r="M27">
-        <v>1.412086451251102</v>
+        <v>6.354389030629958</v>
       </c>
       <c r="N27">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O27">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P27">
-        <v>7.619173565240668</v>
+        <v>34.286281043583</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.2238245798150836</v>
+        <v>1.007210609167876</v>
       </c>
       <c r="C28">
-        <v>1.006661447908072</v>
+        <v>4.529976515586326</v>
       </c>
       <c r="D28">
-        <v>0.0007102577146782973</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E28">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F28">
-        <v>0.2437033042117211</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G28">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H28">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I28">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J28">
-        <v>0.2700140880919396</v>
+        <v>1.215063396413728</v>
       </c>
       <c r="K28">
-        <v>0.3576149259010517</v>
+        <v>1.609267166554732</v>
       </c>
       <c r="L28">
-        <v>1.211084853487505</v>
+        <v>5.44988184069377</v>
       </c>
       <c r="M28">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="N28">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O28">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P28">
-        <v>5.021132448574939</v>
+        <v>22.59509601858722</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.2766926372989996</v>
+        <v>1.245116867845498</v>
       </c>
       <c r="C29">
-        <v>1.244437992998941</v>
+        <v>5.599970968495233</v>
       </c>
       <c r="D29">
-        <v>0.002001635377729747</v>
+        <v>0.009007359199783861</v>
       </c>
       <c r="E29">
-        <v>0.1903911761555339</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="F29">
-        <v>0.7833320492519603</v>
+        <v>3.524994221633821</v>
       </c>
       <c r="G29">
-        <v>0.9050342057476399</v>
+        <v>4.07265392586438</v>
       </c>
       <c r="H29">
-        <v>0.0825510296265803</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I29">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J29">
-        <v>0.4429918632758385</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K29">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L29">
-        <v>1.816627280231258</v>
+        <v>8.174822761040659</v>
       </c>
       <c r="M29">
-        <v>1.143117603393749</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="N29">
-        <v>0.02110460797846817</v>
+        <v>0.09497073590310677</v>
       </c>
       <c r="O29">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="P29">
-        <v>8.194542542700878</v>
+        <v>36.87544144215396</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.2465529035932157</v>
+        <v>1.109488066169471</v>
       </c>
       <c r="C30">
-        <v>1.108883140190128</v>
+        <v>4.989974130855575</v>
       </c>
       <c r="D30">
-        <v>0.0009685332472885872</v>
+        <v>0.004358399612798641</v>
       </c>
       <c r="E30">
-        <v>0.09212476265590346</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="F30">
-        <v>0.6266656394015684</v>
+        <v>2.819995377307058</v>
       </c>
       <c r="G30">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H30">
-        <v>0.04402721580084282</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I30">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J30">
-        <v>0.493619504793077</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K30">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L30">
-        <v>0.890503568740813</v>
+        <v>4.007266059333657</v>
       </c>
       <c r="M30">
-        <v>0.5603517663694848</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="N30">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O30">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P30">
-        <v>5.822210275848301</v>
+        <v>26.19994624131736</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.294480021125364</v>
+        <v>1.325160095064138</v>
       </c>
       <c r="C31">
-        <v>1.324437578263159</v>
+        <v>5.959969102184219</v>
       </c>
       <c r="D31">
-        <v>0.001678790961966885</v>
+        <v>0.00755455932885098</v>
       </c>
       <c r="E31">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="F31">
-        <v>0.6092582605293023</v>
+        <v>2.741662172381861</v>
       </c>
       <c r="G31">
-        <v>0.7039154933592756</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="H31">
-        <v>0.05503401975105354</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I31">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J31">
-        <v>0.4218970126436555</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K31">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L31">
-        <v>1.246704996237137</v>
+        <v>5.610172483067117</v>
       </c>
       <c r="M31">
-        <v>0.7844924729172789</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="N31">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O31">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P31">
-        <v>6.636256252001745</v>
+        <v>29.86315313400786</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.341913044662335</v>
+        <v>1.538608700980509</v>
       </c>
       <c r="C32">
-        <v>1.537769805634406</v>
+        <v>6.919964125354826</v>
       </c>
       <c r="D32">
-        <v>0.002389048676645182</v>
+        <v>0.01075071904490332</v>
       </c>
       <c r="E32">
-        <v>0.2272410812178953</v>
+        <v>1.022584865480528</v>
       </c>
       <c r="F32">
-        <v>0.574443502784771</v>
+        <v>2.584995762531469</v>
       </c>
       <c r="G32">
-        <v>0.6636917508816028</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="H32">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I32">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J32">
-        <v>0.3459555503677976</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K32">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L32">
-        <v>1.602906423733463</v>
+        <v>7.213078906800581</v>
       </c>
       <c r="M32">
-        <v>1.008633179465073</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="N32">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O32">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P32">
-        <v>7.386657894599788</v>
+        <v>33.23996052569904</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.393298820160721</v>
+        <v>1.769844690723245</v>
       </c>
       <c r="C33">
-        <v>1.768879718619925</v>
+        <v>7.959958733789653</v>
       </c>
       <c r="D33">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E33">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F33">
-        <v>0.2785180619562526</v>
+        <v>1.253331278803137</v>
       </c>
       <c r="G33">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H33">
-        <v>0.05503401975105354</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I33">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J33">
-        <v>0.2236054167011375</v>
+        <v>1.006224375155119</v>
       </c>
       <c r="K33">
-        <v>0.2961498605118084</v>
+        <v>1.332674372303138</v>
       </c>
       <c r="L33">
-        <v>0.6767827122430176</v>
+        <v>3.045522205093577</v>
       </c>
       <c r="M33">
-        <v>0.4258673424408085</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="P33">
-        <v>4.903672855285792</v>
+        <v>22.06652784878605</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.4081216400160248</v>
+        <v>1.83654738007211</v>
       </c>
       <c r="C34">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D34">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E34">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F34">
-        <v>0.2437033042117211</v>
+        <v>1.096664868952744</v>
       </c>
       <c r="G34">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H34">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I34">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J34">
-        <v>0.227824386827574</v>
+        <v>1.025209740724083</v>
       </c>
       <c r="K34">
-        <v>0.3017375937290123</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="L34">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M34">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N34">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O34">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P34">
-        <v>4.560680224875839</v>
+        <v>20.52306101194127</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.2855863292121816</v>
+        <v>1.285138481454817</v>
       </c>
       <c r="C35">
-        <v>1.284437785631051</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="D35">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E35">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F35">
-        <v>0.2262959253394553</v>
+        <v>1.018331664027549</v>
       </c>
       <c r="G35">
-        <v>0.2614543261048737</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="H35">
-        <v>0.07429592666392228</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I35">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J35">
-        <v>0.1181311635402236</v>
+        <v>0.5315902359310061</v>
       </c>
       <c r="K35">
-        <v>0.1564565300817101</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="L35">
-        <v>0.7480229977422828</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M35">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="N35">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O35">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P35">
-        <v>4.22185210853009</v>
+        <v>18.9983344883854</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.2717516973472318</v>
+        <v>1.222882638062543</v>
       </c>
       <c r="C36">
-        <v>1.222215885981103</v>
+        <v>5.499971486914966</v>
       </c>
       <c r="D36">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E36">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F36">
-        <v>0.1566664098503921</v>
+        <v>0.7049988443267644</v>
       </c>
       <c r="G36">
-        <v>0.181006841149528</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="H36">
-        <v>0.09080613258923831</v>
+        <v>0.4086275966515725</v>
       </c>
       <c r="I36">
-        <v>0.67302012613732</v>
+        <v>3.02859056761794</v>
       </c>
       <c r="J36">
-        <v>0.1012552830344774</v>
+        <v>0.4556487736551481</v>
       </c>
       <c r="K36">
-        <v>0.1341055972128943</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="L36">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M36">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N36">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O36">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P36">
-        <v>3.417577363110564</v>
+        <v>15.37909813399754</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.1917084701285927</v>
+        <v>0.8626881155786668</v>
       </c>
       <c r="C37">
-        <v>0.8622177522921242</v>
+        <v>3.879979885314557</v>
       </c>
       <c r="D37">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E37">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F37">
-        <v>0.1914811675949237</v>
+        <v>0.8616652541771566</v>
       </c>
       <c r="G37">
-        <v>0.2212305836272009</v>
+        <v>0.9955376263224038</v>
       </c>
       <c r="H37">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I37">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J37">
-        <v>0.1350070440459698</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K37">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L37">
-        <v>0.3562014274963251</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M37">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N37">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O37">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P37">
-        <v>2.955921211291198</v>
+        <v>13.30164545081039</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.09881879903535694</v>
+        <v>0.4446845956591068</v>
       </c>
       <c r="C38">
-        <v>0.4444421403567649</v>
+        <v>1.999989631605441</v>
       </c>
       <c r="D38">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E38">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F38">
-        <v>0.08703689436132896</v>
+        <v>0.3916660246259802</v>
       </c>
       <c r="G38">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="H38">
-        <v>0.04677891678839551</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I38">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J38">
-        <v>0.05906558177011179</v>
+        <v>0.265795117965503</v>
       </c>
       <c r="K38">
-        <v>0.07822826504085505</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="L38">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M38">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P38">
-        <v>1.564220797729918</v>
+        <v>7.038993589784631</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.08547826116558375</v>
+        <v>0.3846521752451272</v>
       </c>
       <c r="C39">
-        <v>0.3844424514086016</v>
+        <v>1.729991031338707</v>
       </c>
       <c r="D39">
-        <v>0.0007102577146782973</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E39">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F39">
-        <v>0.1566664098503921</v>
+        <v>0.7049988443267644</v>
       </c>
       <c r="G39">
-        <v>0.181006841149528</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="H39">
-        <v>0.0110068039502107</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I39">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J39">
-        <v>0.09281734278160421</v>
+        <v>0.4176780425172189</v>
       </c>
       <c r="K39">
-        <v>0.1229301307784865</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="L39">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M39">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P39">
-        <v>1.416331708805282</v>
+        <v>6.373492689623771</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.06571450135851244</v>
+        <v>0.295715256113306</v>
       </c>
       <c r="C40">
-        <v>0.2955540233372486</v>
+        <v>1.329993105017618</v>
       </c>
       <c r="D40">
-        <v>0.0007102577146782973</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E40">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="J40">
-        <v>0.07172249214942147</v>
+        <v>0.3227512146723966</v>
       </c>
       <c r="K40">
-        <v>0.09499146469246685</v>
+        <v>0.4274615911161008</v>
       </c>
       <c r="L40">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M40">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P40">
-        <v>1.002490392364207</v>
+        <v>4.511206765638931</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.0405157076044964</v>
+        <v>0.1823206842202338</v>
       </c>
       <c r="C41">
-        <v>0.1822212775462736</v>
+        <v>0.8199957489582312</v>
       </c>
       <c r="D41">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E41">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F41">
-        <v>0.05222213661679737</v>
+        <v>0.2349996147755881</v>
       </c>
       <c r="G41">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="J41">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K41">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L41">
-        <v>0.1068604282488975</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M41">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="P41">
-        <v>0.6038639255169562</v>
+        <v>2.717387664826303</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.03458657966237495</v>
+        <v>0.1556396084806873</v>
       </c>
       <c r="C42">
-        <v>0.1555547491248676</v>
+        <v>0.6999963710619042</v>
       </c>
       <c r="D42">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E42">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F42">
-        <v>0.03481475774453158</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G42">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J42">
-        <v>0.02109485063218278</v>
+        <v>0.09492682784482251</v>
       </c>
       <c r="K42">
-        <v>0.02793866608601966</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="L42">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M42">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P42">
-        <v>0.5525564190721763</v>
+        <v>2.486503885824795</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.02519879375401604</v>
+        <v>0.1133945718930721</v>
       </c>
       <c r="C43">
-        <v>0.1133327457909751</v>
+        <v>0.5099973560593879</v>
       </c>
       <c r="D43">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E43">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F43">
-        <v>0.03481475774453158</v>
+        <v>0.1566664098503921</v>
       </c>
       <c r="G43">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H43">
-        <v>0.005503401975105352</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I43">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J43">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K43">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L43">
-        <v>0.213720856497795</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M43">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P43">
-        <v>0.7149468099959522</v>
+        <v>3.217260644981784</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.04496255356108748</v>
+        <v>0.2023314910248935</v>
       </c>
       <c r="C44">
-        <v>0.2022211738623281</v>
+        <v>0.9099952823804761</v>
       </c>
       <c r="D44">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E44">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="J44">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K44">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L44">
-        <v>0.3918215702459575</v>
+        <v>1.763197066106808</v>
       </c>
       <c r="M44">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="P44">
-        <v>1.015652954449392</v>
+        <v>4.57043829502226</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.154157326495157</v>
+        <v>0.6937079692282063</v>
       </c>
       <c r="C45">
-        <v>0.6933297389565537</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="D45">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E45">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F45">
-        <v>0.2088885464671895</v>
+        <v>0.9399984591023526</v>
       </c>
       <c r="G45">
-        <v>0.2413424548660373</v>
+        <v>1.086041046897168</v>
       </c>
       <c r="H45">
-        <v>0.01375850493776338</v>
+        <v>0.06191327221993522</v>
       </c>
       <c r="I45">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="J45">
-        <v>0.2109485063218278</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K45">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L45">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M45">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N45">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O45">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P45">
-        <v>2.499119366724305</v>
+        <v>11.24603715025937</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.2707635093568782</v>
+        <v>1.218435792105952</v>
       </c>
       <c r="C46">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D46">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E46">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F46">
-        <v>0.33074019857305</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G46">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H46">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I46">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J46">
-        <v>0.2826709984712493</v>
+        <v>1.272019493120621</v>
       </c>
       <c r="K46">
-        <v>0.3743781255526635</v>
+        <v>1.684701564986985</v>
       </c>
       <c r="L46">
-        <v>1.460425852734932</v>
+        <v>6.571916337307199</v>
       </c>
       <c r="M46">
-        <v>0.918976896845955</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="N46">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O46">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P46">
-        <v>6.067779654036173</v>
+        <v>27.30500844316279</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.3448776086333959</v>
+        <v>1.551949238850282</v>
       </c>
       <c r="C47">
-        <v>1.55110306984511</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="D47">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E47">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F47">
-        <v>0.2959254408285184</v>
+        <v>1.331664483728332</v>
       </c>
       <c r="G47">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H47">
-        <v>0.0825510296265803</v>
+        <v>0.3714796333196111</v>
       </c>
       <c r="I47">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="J47">
-        <v>0.1476639544252794</v>
+        <v>0.6644877949137575</v>
       </c>
       <c r="K47">
-        <v>0.1955706626021376</v>
+        <v>0.8800679817096193</v>
       </c>
       <c r="L47">
-        <v>0.6411625694933853</v>
+        <v>2.885231562720232</v>
       </c>
       <c r="M47">
-        <v>0.4034532717860291</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="N47">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O47">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P47">
-        <v>4.648266631191645</v>
+        <v>20.91719984036241</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.3152319689227889</v>
+        <v>1.41854386015255</v>
       </c>
       <c r="C48">
-        <v>1.41777042773808</v>
+        <v>6.379966924821361</v>
       </c>
       <c r="D48">
-        <v>0.001097671013593732</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E48">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F48">
-        <v>0.4699992295511763</v>
+        <v>2.114996532980292</v>
       </c>
       <c r="G48">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H48">
-        <v>0.08530273061413299</v>
+        <v>0.3838622877635984</v>
       </c>
       <c r="I48">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="J48">
-        <v>0.2362623270804471</v>
+        <v>1.063180471862012</v>
       </c>
       <c r="K48">
-        <v>0.3129130601634202</v>
+        <v>1.408108770735391</v>
       </c>
       <c r="L48">
-        <v>0.9261237114904448</v>
+        <v>4.167556701707001</v>
       </c>
       <c r="M48">
-        <v>0.5827658370242643</v>
+        <v>2.622446266609189</v>
       </c>
       <c r="N48">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O48">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P48">
-        <v>5.681534880588623</v>
+        <v>25.56690696264881</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.2841040472266514</v>
+        <v>1.278468212519932</v>
       </c>
       <c r="C49">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D49">
-        <v>0.001420515429356595</v>
+        <v>0.006392319432104675</v>
       </c>
       <c r="E49">
-        <v>0.1351163185619918</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="F49">
-        <v>0.33074019857305</v>
+        <v>1.488330893578725</v>
       </c>
       <c r="G49">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H49">
-        <v>0.1265782454274231</v>
+        <v>0.5696021044234042</v>
       </c>
       <c r="I49">
-        <v>0.93814926673687</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="J49">
-        <v>0.4092401022643459</v>
+        <v>1.841580460189556</v>
       </c>
       <c r="K49">
-        <v>0.5420101220687814</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="L49">
-        <v>1.032984139739342</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M49">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N49">
-        <v>0.0237426839757767</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O49">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P49">
-        <v>6.232666390713287</v>
+        <v>28.04699875820979</v>
       </c>
     </row>
   </sheetData>
